--- a/capiq_data/in_process_data/IQ174901.xlsx
+++ b/capiq_data/in_process_data/IQ174901.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8720549-9EC9-469E-BE1F-7FD587CB37F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04B7B8E-54DB-45DA-A93E-5B3F3B7914AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"35ed6833-1530-4159-874b-96eecd968ee1"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"eb9447d2-f364-4bf3-a8ea-66b99f8a9f43"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>198.34800000000001</v>
+        <v>134.69300000000001</v>
       </c>
       <c r="D2">
-        <v>1616.441</v>
+        <v>1171.662</v>
       </c>
       <c r="E2">
-        <v>1023.099</v>
+        <v>869.51</v>
       </c>
       <c r="F2">
-        <v>658.56299999999999</v>
+        <v>421.24299999999999</v>
       </c>
       <c r="G2">
-        <v>3131.625</v>
+        <v>1908.674</v>
       </c>
       <c r="H2">
-        <v>8558.7430000000004</v>
+        <v>4893.7629999999999</v>
       </c>
       <c r="I2">
-        <v>438.28800000000001</v>
+        <v>266.72899999999998</v>
       </c>
       <c r="J2">
-        <v>1790.886</v>
+        <v>631.846</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>839.88</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1374.575</v>
+        <v>1569.527</v>
       </c>
       <c r="O2">
-        <v>4032.181</v>
+        <v>2452.1880000000001</v>
       </c>
       <c r="P2">
-        <v>1807.4760000000001</v>
+        <v>1474.383</v>
       </c>
       <c r="Q2">
-        <v>321.113</v>
+        <v>-29.085999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>32000</v>
+        <v>29489</v>
       </c>
       <c r="T2">
-        <v>4526.5619999999999</v>
+        <v>2441.5749999999998</v>
       </c>
       <c r="U2">
-        <v>1189.079</v>
+        <v>180.648</v>
       </c>
       <c r="V2">
-        <v>428.46100000000001</v>
+        <v>501.77199999999999</v>
       </c>
       <c r="W2">
-        <v>-51.463000000000001</v>
+        <v>-25.391999999999999</v>
       </c>
       <c r="X2">
-        <v>-110.361</v>
+        <v>-62.503</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>93.096999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>198.34800000000001</v>
+        <v>134.69300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>194.905</v>
+        <v>79.085999999999999</v>
       </c>
       <c r="D3">
-        <v>1812.078</v>
+        <v>1202.579</v>
       </c>
       <c r="E3">
-        <v>1213.348</v>
+        <v>864.05200000000002</v>
       </c>
       <c r="F3">
-        <v>711.83699999999999</v>
+        <v>411.49799999999999</v>
       </c>
       <c r="G3">
-        <v>3591.317</v>
+        <v>1939.6759999999999</v>
       </c>
       <c r="H3">
-        <v>9360.143</v>
+        <v>4919.1279999999997</v>
       </c>
       <c r="I3">
-        <v>591.98900000000003</v>
+        <v>252.1</v>
       </c>
       <c r="J3">
-        <v>2185.991</v>
+        <v>1033.2919999999999</v>
       </c>
       <c r="K3">
-        <v>38</v>
+        <v>502.47699999999998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-400.44200000000001</v>
+        <v>-337.41</v>
       </c>
       <c r="N3">
-        <v>1357.194</v>
+        <v>1243.627</v>
       </c>
       <c r="O3">
-        <v>4616.0990000000002</v>
+        <v>2461.2779999999998</v>
       </c>
       <c r="P3">
-        <v>2225.5940000000001</v>
+        <v>1538.24</v>
       </c>
       <c r="Q3">
-        <v>189.68700000000001</v>
+        <v>-11.414999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4744.0439999999999</v>
+        <v>2457.85</v>
       </c>
       <c r="U3">
-        <v>1378.1189999999999</v>
+        <v>169.768</v>
       </c>
       <c r="V3">
-        <v>126.056</v>
+        <v>94.93</v>
       </c>
       <c r="W3">
-        <v>-51.341000000000001</v>
+        <v>-25.411999999999999</v>
       </c>
       <c r="X3">
-        <v>350.87700000000001</v>
+        <v>37.146000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>124.41</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>194.905</v>
+        <v>79.084999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>249.76900000000001</v>
+        <v>143.298</v>
       </c>
       <c r="D4">
-        <v>1994.97</v>
+        <v>1108.777</v>
       </c>
       <c r="E4">
-        <v>1323.47</v>
+        <v>769.30200000000002</v>
       </c>
       <c r="F4">
-        <v>777.15200000000004</v>
+        <v>367.077</v>
       </c>
       <c r="G4">
-        <v>3753.415</v>
+        <v>2021.8440000000001</v>
       </c>
       <c r="H4">
-        <v>9482.0380000000005</v>
+        <v>5004.1009999999997</v>
       </c>
       <c r="I4">
-        <v>596.31500000000005</v>
+        <v>213.39400000000001</v>
       </c>
       <c r="J4">
-        <v>2186.2379999999998</v>
+        <v>1032.999</v>
       </c>
       <c r="K4">
-        <v>46</v>
+        <v>387.78500000000003</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1341.951</v>
+        <v>1219.2750000000001</v>
       </c>
       <c r="O4">
-        <v>4569.0810000000001</v>
+        <v>2451.4650000000001</v>
       </c>
       <c r="P4">
-        <v>2233.9859999999999</v>
+        <v>1424.002</v>
       </c>
       <c r="Q4">
-        <v>21.504000000000001</v>
+        <v>190.33500000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4912.9570000000003</v>
+        <v>2552.636</v>
       </c>
       <c r="U4">
-        <v>1397.4190000000001</v>
+        <v>360.03</v>
       </c>
       <c r="V4">
-        <v>211.19900000000001</v>
+        <v>533.1</v>
       </c>
       <c r="W4">
-        <v>-51.264000000000003</v>
+        <v>-25.385999999999999</v>
       </c>
       <c r="X4">
-        <v>-98.087999999999994</v>
+        <v>-149.30799999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>249.76900000000001</v>
+        <v>143.29900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>172.28</v>
+        <v>2.6070000000000002</v>
       </c>
       <c r="D5">
-        <v>2138.6060000000002</v>
+        <v>1081.0050000000001</v>
       </c>
       <c r="E5">
-        <v>1339.826</v>
+        <v>762.88499999999999</v>
       </c>
       <c r="F5">
-        <v>807.56</v>
+        <v>307.69400000000002</v>
       </c>
       <c r="G5">
-        <v>3292.748</v>
+        <v>1834.424</v>
       </c>
       <c r="H5">
-        <v>9513.0360000000001</v>
+        <v>4828.1019999999999</v>
       </c>
       <c r="I5">
-        <v>591.93899999999996</v>
+        <v>224.33500000000001</v>
       </c>
       <c r="J5">
-        <v>2186.4720000000002</v>
+        <v>1038.6489999999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>212.22300000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1386.896</v>
+        <v>1036.384</v>
       </c>
       <c r="O5">
-        <v>4633.83</v>
+        <v>2287.203</v>
       </c>
       <c r="P5">
-        <v>2187.0309999999999</v>
+        <v>1259.99</v>
       </c>
       <c r="Q5">
-        <v>-483.15600000000001</v>
+        <v>-138.05000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4879.2060000000001</v>
+        <v>2540.8989999999999</v>
       </c>
       <c r="U5">
-        <v>917.024</v>
+        <v>221.78100000000001</v>
       </c>
       <c r="V5">
-        <v>390.05200000000002</v>
+        <v>139.26400000000001</v>
       </c>
       <c r="W5">
-        <v>-58.441000000000003</v>
+        <v>-27.420999999999999</v>
       </c>
       <c r="X5">
-        <v>-134.018</v>
+        <v>-217.27799999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>172.28</v>
+        <v>2.6070000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>278.28899999999999</v>
+        <v>23.545999999999999</v>
       </c>
       <c r="D6">
-        <v>1423.5</v>
+        <v>976.05399999999997</v>
       </c>
       <c r="E6">
-        <v>1118.848</v>
+        <v>663.83900000000006</v>
       </c>
       <c r="F6">
-        <v>550.49699999999996</v>
+        <v>300.07799999999997</v>
       </c>
       <c r="G6">
-        <v>3735.038</v>
+        <v>1573.345</v>
       </c>
       <c r="H6">
-        <v>9500.5519999999997</v>
+        <v>4623.9319999999998</v>
       </c>
       <c r="I6">
-        <v>515.84699999999998</v>
+        <v>202.042</v>
       </c>
       <c r="J6">
-        <v>2186.23</v>
+        <v>1031.7439999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>39.783000000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1415.9079999999999</v>
+        <v>783.90200000000004</v>
       </c>
       <c r="O6">
-        <v>4569.9970000000003</v>
+        <v>2104.6509999999998</v>
       </c>
       <c r="P6">
-        <v>2187.252</v>
+        <v>1075.2570000000001</v>
       </c>
       <c r="Q6">
-        <v>291.35899999999998</v>
+        <v>-45.040999999999997</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>34000</v>
+        <v>26634</v>
       </c>
       <c r="T6">
-        <v>4930.5550000000003</v>
+        <v>2519.2809999999999</v>
       </c>
       <c r="U6">
-        <v>1206.7550000000001</v>
+        <v>175.33099999999999</v>
       </c>
       <c r="V6">
-        <v>352.19499999999999</v>
+        <v>-84.23</v>
       </c>
       <c r="W6">
-        <v>-58.107999999999997</v>
+        <v>-27.344000000000001</v>
       </c>
       <c r="X6">
-        <v>-169.27199999999999</v>
+        <v>-215.566</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>278.28899999999999</v>
+        <v>23.545999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>196.06299999999999</v>
+        <v>-247.93299999999999</v>
       </c>
       <c r="D7">
-        <v>1954.614</v>
+        <v>994.56899999999996</v>
       </c>
       <c r="E7">
-        <v>1273.69</v>
+        <v>704.47199999999998</v>
       </c>
       <c r="F7">
-        <v>746.32799999999997</v>
+        <v>324.18700000000001</v>
       </c>
       <c r="G7">
-        <v>3238.7689999999998</v>
+        <v>1668.8</v>
       </c>
       <c r="H7">
-        <v>9698.5789999999997</v>
+        <v>4302.223</v>
       </c>
       <c r="I7">
-        <v>603.54399999999998</v>
+        <v>207.99199999999999</v>
       </c>
       <c r="J7">
-        <v>2191.7570000000001</v>
+        <v>1032.172</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>173.10599999999999</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.83799999999999997</v>
       </c>
       <c r="N7">
-        <v>1302.5409999999999</v>
+        <v>837.154</v>
       </c>
       <c r="O7">
-        <v>4608.902</v>
+        <v>2064.893</v>
       </c>
       <c r="P7">
-        <v>2195.2669999999998</v>
+        <v>1209.471</v>
       </c>
       <c r="Q7">
-        <v>-306.779</v>
+        <v>-10.449</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5089.6769999999997</v>
+        <v>2237.33</v>
       </c>
       <c r="U7">
-        <v>899.976</v>
+        <v>165.648</v>
       </c>
       <c r="V7">
-        <v>136.30500000000001</v>
+        <v>-50.585999999999999</v>
       </c>
       <c r="W7">
-        <v>-57.942999999999998</v>
+        <v>-27.361999999999998</v>
       </c>
       <c r="X7">
-        <v>-87.245999999999995</v>
+        <v>107.092</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>196.06299999999999</v>
+        <v>-247.93299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>214.101</v>
+        <v>55.201000000000001</v>
       </c>
       <c r="D8">
-        <v>2038.289</v>
+        <v>1081.8409999999999</v>
       </c>
       <c r="E8">
-        <v>1320.2449999999999</v>
+        <v>733.96900000000005</v>
       </c>
       <c r="F8">
-        <v>777.84</v>
+        <v>354.78500000000003</v>
       </c>
       <c r="G8">
-        <v>3205.3139999999999</v>
+        <v>1647.0740000000001</v>
       </c>
       <c r="H8">
-        <v>9804.4050000000007</v>
+        <v>4315.9579999999996</v>
       </c>
       <c r="I8">
-        <v>620.59799999999996</v>
+        <v>233.20099999999999</v>
       </c>
       <c r="J8">
-        <v>2191.75</v>
+        <v>1034.6880000000001</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1358.2629999999999</v>
+        <v>733.31</v>
       </c>
       <c r="O8">
-        <v>4694.1409999999996</v>
+        <v>1983.3230000000001</v>
       </c>
       <c r="P8">
-        <v>2195.152</v>
+        <v>1078.8489999999999</v>
       </c>
       <c r="Q8">
-        <v>-114.011</v>
+        <v>-48.802</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5110.2640000000001</v>
+        <v>2332.6350000000002</v>
       </c>
       <c r="U8">
-        <v>785.96500000000003</v>
+        <v>116.417</v>
       </c>
       <c r="V8">
-        <v>254.20699999999999</v>
+        <v>135.12299999999999</v>
       </c>
       <c r="W8">
-        <v>-57.771000000000001</v>
+        <v>-27.385000000000002</v>
       </c>
       <c r="X8">
-        <v>-208.16900000000001</v>
+        <v>-155.958</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>214.101</v>
+        <v>55.201000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>241.04599999999999</v>
+        <v>56.442</v>
       </c>
       <c r="D9">
-        <v>2097.605</v>
+        <v>1062.451</v>
       </c>
       <c r="E9">
-        <v>1412.3109999999999</v>
+        <v>746.70899999999995</v>
       </c>
       <c r="F9">
-        <v>811.59299999999996</v>
+        <v>350.55700000000002</v>
       </c>
       <c r="G9">
-        <v>3277.107</v>
+        <v>1730.076</v>
       </c>
       <c r="H9">
-        <v>9910.1450000000004</v>
+        <v>4365.8410000000003</v>
       </c>
       <c r="I9">
-        <v>607.16399999999999</v>
+        <v>205.245</v>
       </c>
       <c r="J9">
-        <v>2192.1619999999998</v>
+        <v>1030.1089999999999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>40.936</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1372.895</v>
+        <v>759.33399999999995</v>
       </c>
       <c r="O9">
-        <v>4697.4790000000003</v>
+        <v>2010.9670000000001</v>
       </c>
       <c r="P9">
-        <v>2195.2959999999998</v>
+        <v>1074.8209999999999</v>
       </c>
       <c r="Q9">
-        <v>8.1340000000000003</v>
+        <v>57.889000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5212.6660000000002</v>
+        <v>2354.8739999999998</v>
       </c>
       <c r="U9">
-        <v>794.09900000000005</v>
+        <v>174.33099999999999</v>
       </c>
       <c r="V9">
-        <v>297.786</v>
+        <v>102.342</v>
       </c>
       <c r="W9">
-        <v>-63.418999999999997</v>
+        <v>-27.364999999999998</v>
       </c>
       <c r="X9">
-        <v>-239.83099999999999</v>
+        <v>-36.265999999999998</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>241.04599999999999</v>
+        <v>56.442</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>159.86000000000001</v>
+        <v>15.029</v>
       </c>
       <c r="D10">
-        <v>2013.8309999999999</v>
+        <v>914.73199999999997</v>
       </c>
       <c r="E10">
-        <v>1225.8979999999999</v>
+        <v>641.82399999999996</v>
       </c>
       <c r="F10">
-        <v>775.23900000000003</v>
+        <v>301.39</v>
       </c>
       <c r="G10">
-        <v>3425.3890000000001</v>
+        <v>1604.6949999999999</v>
       </c>
       <c r="H10">
-        <v>10443.942999999999</v>
+        <v>4437.116</v>
       </c>
       <c r="I10">
-        <v>651.35799999999995</v>
+        <v>191.142</v>
       </c>
       <c r="J10">
-        <v>2189.35</v>
+        <v>1030.299</v>
       </c>
       <c r="K10">
-        <v>607.5</v>
+        <v>20.611000000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2195.5859999999998</v>
+        <v>668.18399999999997</v>
       </c>
       <c r="O10">
-        <v>5524.7129999999997</v>
+        <v>2042.2819999999999</v>
       </c>
       <c r="P10">
-        <v>2800.116</v>
+        <v>1054.06</v>
       </c>
       <c r="Q10">
-        <v>5.9770000000000003</v>
+        <v>123.226</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="T10">
-        <v>4919.2299999999996</v>
+        <v>2394.8339999999998</v>
       </c>
       <c r="U10">
-        <v>800.07600000000002</v>
+        <v>293.82400000000001</v>
       </c>
       <c r="V10">
-        <v>584.875</v>
+        <v>230.98500000000001</v>
       </c>
       <c r="W10">
-        <v>-61.826000000000001</v>
+        <v>-27.324000000000002</v>
       </c>
       <c r="X10">
-        <v>192.304</v>
+        <v>-54.938000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>159.86000000000001</v>
+        <v>15.029</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>210.00299999999999</v>
+        <v>59.470999999999997</v>
       </c>
       <c r="D11">
-        <v>1763.9770000000001</v>
+        <v>998.37300000000005</v>
       </c>
       <c r="E11">
-        <v>1309.4459999999999</v>
+        <v>689.64099999999996</v>
       </c>
       <c r="F11">
-        <v>683.428</v>
+        <v>347.61799999999999</v>
       </c>
       <c r="G11">
-        <v>2919.8629999999998</v>
+        <v>1707.0540000000001</v>
       </c>
       <c r="H11">
-        <v>10234.914000000001</v>
+        <v>4480.6000000000004</v>
       </c>
       <c r="I11">
-        <v>648.40899999999999</v>
+        <v>231.39500000000001</v>
       </c>
       <c r="J11">
-        <v>2189.5210000000002</v>
+        <v>1031.0060000000001</v>
       </c>
       <c r="K11">
-        <v>698.4</v>
+        <v>21.099</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-5.6000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2156.2710000000002</v>
+        <v>686.39200000000005</v>
       </c>
       <c r="O11">
-        <v>5473.1329999999998</v>
+        <v>2045.6659999999999</v>
       </c>
       <c r="P11">
-        <v>2892.1190000000001</v>
+        <v>1055.3879999999999</v>
       </c>
       <c r="Q11">
-        <v>-228.71700000000001</v>
+        <v>-0.98499999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4761.7809999999999</v>
+        <v>2434.9340000000002</v>
       </c>
       <c r="U11">
-        <v>571.35900000000004</v>
+        <v>294.19299999999998</v>
       </c>
       <c r="V11">
-        <v>76.075000000000003</v>
+        <v>58.076000000000001</v>
       </c>
       <c r="W11">
-        <v>-60.296999999999997</v>
+        <v>-27.338999999999999</v>
       </c>
       <c r="X11">
-        <v>-252.672</v>
+        <v>-25.536999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>210.00299999999999</v>
+        <v>59.470999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>330.04899999999998</v>
+        <v>72.781000000000006</v>
       </c>
       <c r="D12">
-        <v>1932.4110000000001</v>
+        <v>1094</v>
       </c>
       <c r="E12">
-        <v>1398.829</v>
+        <v>731.15099999999995</v>
       </c>
       <c r="F12">
-        <v>759.00599999999997</v>
+        <v>378.56200000000001</v>
       </c>
       <c r="G12">
-        <v>3048.8850000000002</v>
+        <v>1791.809</v>
       </c>
       <c r="H12">
-        <v>10349.255999999999</v>
+        <v>4601.8860000000004</v>
       </c>
       <c r="I12">
-        <v>664.05799999999999</v>
+        <v>251.048</v>
       </c>
       <c r="J12">
-        <v>2189.8110000000001</v>
+        <v>1001.739</v>
       </c>
       <c r="K12">
-        <v>662.2</v>
+        <v>21.356000000000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2107.2840000000001</v>
+        <v>712.27499999999998</v>
       </c>
       <c r="O12">
-        <v>5368.384</v>
+        <v>2059.4769999999999</v>
       </c>
       <c r="P12">
-        <v>2855.5920000000001</v>
+        <v>1026.0630000000001</v>
       </c>
       <c r="Q12">
-        <v>34.591000000000001</v>
+        <v>12.301</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4980.8720000000003</v>
+        <v>2542.4090000000001</v>
       </c>
       <c r="U12">
-        <v>605.95000000000005</v>
+        <v>306.32299999999998</v>
       </c>
       <c r="V12">
-        <v>309.43900000000002</v>
+        <v>88.006</v>
       </c>
       <c r="W12">
-        <v>-59.941000000000003</v>
+        <v>-27.347999999999999</v>
       </c>
       <c r="X12">
-        <v>-158.684</v>
+        <v>-56.43</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>330.04899999999998</v>
+        <v>72.781999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>269.11399999999998</v>
+        <v>84.355999999999995</v>
       </c>
       <c r="D13">
-        <v>1940.211</v>
+        <v>1122.9090000000001</v>
       </c>
       <c r="E13">
-        <v>1437.5129999999999</v>
+        <v>778.096</v>
       </c>
       <c r="F13">
-        <v>755.15</v>
+        <v>383.274</v>
       </c>
       <c r="G13">
-        <v>3638.67</v>
+        <v>2081.75</v>
       </c>
       <c r="H13">
-        <v>10665.13</v>
+        <v>4927.79</v>
       </c>
       <c r="I13">
-        <v>677.99400000000003</v>
+        <v>262.94499999999999</v>
       </c>
       <c r="J13">
-        <v>2190.1559999999999</v>
+        <v>1006.033</v>
       </c>
       <c r="K13">
-        <v>668.9</v>
+        <v>73.683000000000007</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2151.9670000000001</v>
+        <v>990.29</v>
       </c>
       <c r="O13">
-        <v>5380.7049999999999</v>
+        <v>2327.835</v>
       </c>
       <c r="P13">
-        <v>2862.2910000000002</v>
+        <v>1079.7159999999999</v>
       </c>
       <c r="Q13">
-        <v>133.874</v>
+        <v>98.441000000000003</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5284.4250000000002</v>
+        <v>2599.9549999999999</v>
       </c>
       <c r="U13">
-        <v>739.82399999999996</v>
+        <v>404.37900000000002</v>
       </c>
       <c r="V13">
-        <v>345.29599999999999</v>
+        <v>96.602000000000004</v>
       </c>
       <c r="W13">
-        <v>-63.872999999999998</v>
+        <v>-30.391999999999999</v>
       </c>
       <c r="X13">
-        <v>-112.479</v>
+        <v>25.495000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>269.11399999999998</v>
+        <v>84.355000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>193.96299999999999</v>
+        <v>76.319000000000003</v>
       </c>
       <c r="D14">
-        <v>1518.4970000000001</v>
+        <v>1198.0139999999999</v>
       </c>
       <c r="E14">
-        <v>1076.6410000000001</v>
+        <v>747.56700000000001</v>
       </c>
       <c r="F14">
-        <v>586.327</v>
+        <v>410.96800000000002</v>
       </c>
       <c r="G14">
-        <v>5497.0349999999999</v>
+        <v>1849.64</v>
       </c>
       <c r="H14">
-        <v>10855.181</v>
+        <v>5159.5110000000004</v>
       </c>
       <c r="I14">
-        <v>522.71299999999997</v>
+        <v>283.81400000000002</v>
       </c>
       <c r="J14">
-        <v>2599.201</v>
+        <v>1003.915</v>
       </c>
       <c r="K14">
-        <v>226.5</v>
+        <v>60.402999999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1877.8689999999999</v>
+        <v>910.80100000000004</v>
       </c>
       <c r="O14">
-        <v>5477.7849999999999</v>
+        <v>2416.84</v>
       </c>
       <c r="P14">
-        <v>2828.4789999999998</v>
+        <v>1067.5840000000001</v>
       </c>
       <c r="Q14">
-        <v>64.058000000000007</v>
+        <v>-33.201999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>37000</v>
+        <v>25700</v>
       </c>
       <c r="T14">
-        <v>5377.3959999999997</v>
+        <v>2742.6709999999998</v>
       </c>
       <c r="U14">
-        <v>803.88199999999995</v>
+        <v>370.37900000000002</v>
       </c>
       <c r="V14">
-        <v>421.75700000000001</v>
+        <v>333.71600000000001</v>
       </c>
       <c r="W14">
-        <v>-63.709000000000003</v>
+        <v>-30.425000000000001</v>
       </c>
       <c r="X14">
-        <v>-154.70699999999999</v>
+        <v>-41.808999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>193.96299999999999</v>
+        <v>76.319000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>160.13800000000001</v>
+        <v>83.111999999999995</v>
       </c>
       <c r="D15">
-        <v>1802.57</v>
+        <v>1230.1590000000001</v>
       </c>
       <c r="E15">
-        <v>1238.3679999999999</v>
+        <v>801.28</v>
       </c>
       <c r="F15">
-        <v>708.40300000000002</v>
+        <v>429.62799999999999</v>
       </c>
       <c r="G15">
-        <v>2701.7089999999998</v>
+        <v>1993.702</v>
       </c>
       <c r="H15">
-        <v>8664.39</v>
+        <v>5257.8059999999996</v>
       </c>
       <c r="I15">
-        <v>607.61599999999999</v>
+        <v>300.964</v>
       </c>
       <c r="J15">
-        <v>2602.3339999999998</v>
+        <v>1006.051</v>
       </c>
       <c r="K15">
-        <v>74.3</v>
+        <v>23.841999999999999</v>
       </c>
       <c r="L15">
-        <v>-152.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-4.7E-2</v>
+        <v>-37.691000000000003</v>
       </c>
       <c r="N15">
-        <v>1345.4369999999999</v>
+        <v>971.53099999999995</v>
       </c>
       <c r="O15">
-        <v>4916.3119999999999</v>
+        <v>2478.0070000000001</v>
       </c>
       <c r="P15">
-        <v>2679.4290000000001</v>
+        <v>1029.893</v>
       </c>
       <c r="Q15">
-        <v>-317.84300000000002</v>
+        <v>52.154000000000003</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3748.078</v>
+        <v>2779.799</v>
       </c>
       <c r="U15">
-        <v>486.03899999999999</v>
+        <v>422.53300000000002</v>
       </c>
       <c r="V15">
-        <v>-3.0019999999999998</v>
+        <v>127.833</v>
       </c>
       <c r="W15">
-        <v>-63.984999999999999</v>
+        <v>-30.478999999999999</v>
       </c>
       <c r="X15">
-        <v>-151.774</v>
+        <v>-63.807000000000002</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>160.13800000000001</v>
+        <v>83.111999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>213.959</v>
+        <v>112.264</v>
       </c>
       <c r="D16">
-        <v>1962.636</v>
+        <v>1272.1849999999999</v>
       </c>
       <c r="E16">
-        <v>1303.431</v>
+        <v>891.226</v>
       </c>
       <c r="F16">
-        <v>769.28800000000001</v>
+        <v>444.09300000000002</v>
       </c>
       <c r="G16">
-        <v>3111.413</v>
+        <v>2084.0859999999998</v>
       </c>
       <c r="H16">
-        <v>8795.0740000000005</v>
+        <v>5375.7049999999999</v>
       </c>
       <c r="I16">
-        <v>625.51300000000003</v>
+        <v>332.06</v>
       </c>
       <c r="J16">
-        <v>2596.3440000000001</v>
+        <v>1001.109</v>
       </c>
       <c r="K16">
-        <v>48</v>
+        <v>22.48</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1337.43</v>
+        <v>1036.6569999999999</v>
       </c>
       <c r="O16">
-        <v>4898.4480000000003</v>
+        <v>2517.8220000000001</v>
       </c>
       <c r="P16">
-        <v>2647.0929999999998</v>
+        <v>1023.5890000000001</v>
       </c>
       <c r="Q16">
-        <v>61.348999999999997</v>
+        <v>-51.883000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3896.6260000000002</v>
+        <v>2857.8829999999998</v>
       </c>
       <c r="U16">
-        <v>547.38800000000003</v>
+        <v>370.69600000000003</v>
       </c>
       <c r="V16">
-        <v>263.60399999999998</v>
+        <v>88.966999999999999</v>
       </c>
       <c r="W16">
-        <v>-62.445</v>
+        <v>-30.492999999999999</v>
       </c>
       <c r="X16">
-        <v>-114.20099999999999</v>
+        <v>-43.719000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>213.959</v>
+        <v>112.264</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>231.84399999999999</v>
+        <v>120.264</v>
       </c>
       <c r="D17">
-        <v>2009.575</v>
+        <v>1383.885</v>
       </c>
       <c r="E17">
-        <v>1338.586</v>
+        <v>931.91899999999998</v>
       </c>
       <c r="F17">
-        <v>774.51499999999999</v>
+        <v>472.43799999999999</v>
       </c>
       <c r="G17">
-        <v>3127.2179999999998</v>
+        <v>2108.395</v>
       </c>
       <c r="H17">
-        <v>8959.1859999999997</v>
+        <v>5520.0630000000001</v>
       </c>
       <c r="I17">
-        <v>649.80499999999995</v>
+        <v>370.13900000000001</v>
       </c>
       <c r="J17">
-        <v>2570.2570000000001</v>
+        <v>1000.059</v>
       </c>
       <c r="K17">
-        <v>150.5</v>
+        <v>22.837</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1474.6949999999999</v>
+        <v>1064.3019999999999</v>
       </c>
       <c r="O17">
-        <v>5037.2470000000003</v>
+        <v>2563.5990000000002</v>
       </c>
       <c r="P17">
-        <v>2723.3229999999999</v>
+        <v>1022.896</v>
       </c>
       <c r="Q17">
-        <v>158.846</v>
+        <v>-63.103999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3921.9389999999999</v>
+        <v>2956.4639999999999</v>
       </c>
       <c r="U17">
-        <v>706.23400000000004</v>
+        <v>306.64299999999997</v>
       </c>
       <c r="V17">
-        <v>290.55</v>
+        <v>165.16200000000001</v>
       </c>
       <c r="W17">
-        <v>-66.203000000000003</v>
+        <v>-32.534999999999997</v>
       </c>
       <c r="X17">
-        <v>-38.533999999999999</v>
+        <v>-32.728000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>231.84399999999999</v>
+        <v>120.264</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>169.29400000000001</v>
+        <v>97.114999999999995</v>
       </c>
       <c r="D18">
-        <v>1977.9469999999999</v>
+        <v>1330.88</v>
       </c>
       <c r="E18">
-        <v>1186.7460000000001</v>
+        <v>864.42600000000004</v>
       </c>
       <c r="F18">
-        <v>741.73299999999995</v>
+        <v>447.524</v>
       </c>
       <c r="G18">
-        <v>3161.14</v>
+        <v>2030.829</v>
       </c>
       <c r="H18">
-        <v>9030.2909999999993</v>
+        <v>5762.8469999999998</v>
       </c>
       <c r="I18">
-        <v>615.33199999999999</v>
+        <v>324.83999999999997</v>
       </c>
       <c r="J18">
-        <v>2253.0410000000002</v>
+        <v>753.06299999999999</v>
       </c>
       <c r="K18">
-        <v>478</v>
+        <v>86.587999999999994</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2089.567</v>
+        <v>1294.1849999999999</v>
       </c>
       <c r="O18">
-        <v>5329.5659999999998</v>
+        <v>2644.165</v>
       </c>
       <c r="P18">
-        <v>3030.9969999999998</v>
+        <v>1092.328</v>
       </c>
       <c r="Q18">
-        <v>-24.652999999999999</v>
+        <v>47.895000000000003</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="T18">
-        <v>3700.7249999999999</v>
+        <v>3118.6819999999998</v>
       </c>
       <c r="U18">
-        <v>681.58100000000002</v>
+        <v>329.05500000000001</v>
       </c>
       <c r="V18">
-        <v>424.77199999999999</v>
+        <v>216.072</v>
       </c>
       <c r="W18">
-        <v>-65.853999999999999</v>
+        <v>-32.552999999999997</v>
       </c>
       <c r="X18">
-        <v>49.02</v>
+        <v>39.304000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>169.29400000000001</v>
+        <v>97.114999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>209.51</v>
+        <v>98.134</v>
       </c>
       <c r="D19">
-        <v>1715.501</v>
+        <v>1224.855</v>
       </c>
       <c r="E19">
-        <v>1133.213</v>
+        <v>964.56500000000005</v>
       </c>
       <c r="F19">
-        <v>634.61300000000006</v>
+        <v>431.21300000000002</v>
       </c>
       <c r="G19">
-        <v>2886.98</v>
+        <v>2306.9319999999998</v>
       </c>
       <c r="H19">
-        <v>8646.7049999999999</v>
+        <v>6006.1760000000004</v>
       </c>
       <c r="I19">
-        <v>584.1</v>
+        <v>409.06099999999998</v>
       </c>
       <c r="J19">
-        <v>2217.8739999999998</v>
+        <v>755.44299999999998</v>
       </c>
       <c r="K19">
-        <v>325.5</v>
+        <v>263.90199999999999</v>
       </c>
       <c r="L19">
-        <v>-152.5</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-3.1E-2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1818.7650000000001</v>
+        <v>1530.9639999999999</v>
       </c>
       <c r="O19">
-        <v>5067.5950000000003</v>
+        <v>2867.163</v>
       </c>
       <c r="P19">
-        <v>2843.3760000000002</v>
+        <v>1270.5719999999999</v>
       </c>
       <c r="Q19">
-        <v>-143.095</v>
+        <v>54.005000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3579.11</v>
+        <v>3139.0129999999999</v>
       </c>
       <c r="U19">
-        <v>538.48599999999999</v>
+        <v>411.83</v>
       </c>
       <c r="V19">
-        <v>134.04900000000001</v>
+        <v>41.761000000000003</v>
       </c>
       <c r="W19">
-        <v>-64.441999999999993</v>
+        <v>-32.591999999999999</v>
       </c>
       <c r="X19">
-        <v>-416.60300000000001</v>
+        <v>148.386</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>209.51</v>
+        <v>98.134</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>332.39600000000002</v>
+        <v>173.20099999999999</v>
       </c>
       <c r="D20">
-        <v>1758.6279999999999</v>
+        <v>1333.319</v>
       </c>
       <c r="E20">
-        <v>1149.414</v>
+        <v>970.42499999999995</v>
       </c>
       <c r="F20">
-        <v>657.04200000000003</v>
+        <v>469.04599999999999</v>
       </c>
       <c r="G20">
-        <v>2737.125</v>
+        <v>2291.808</v>
       </c>
       <c r="H20">
-        <v>8466.8169999999991</v>
+        <v>5932.5230000000001</v>
       </c>
       <c r="I20">
-        <v>606.346</v>
+        <v>411.80799999999999</v>
       </c>
       <c r="J20">
-        <v>2225.0630000000001</v>
+        <v>751.65099999999995</v>
       </c>
       <c r="K20">
-        <v>81.900000000000006</v>
+        <v>129.495</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1613.7049999999999</v>
+        <v>1426.37</v>
       </c>
       <c r="O20">
-        <v>4874.335</v>
+        <v>2764.9270000000001</v>
       </c>
       <c r="P20">
-        <v>2607.0140000000001</v>
+        <v>1132.3610000000001</v>
       </c>
       <c r="Q20">
-        <v>56.682000000000002</v>
+        <v>-11.061999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3592.482</v>
+        <v>3167.596</v>
       </c>
       <c r="U20">
-        <v>595.16800000000001</v>
+        <v>399.67099999999999</v>
       </c>
       <c r="V20">
-        <v>206.14099999999999</v>
+        <v>178.01599999999999</v>
       </c>
       <c r="W20">
-        <v>-63.216999999999999</v>
+        <v>-32.395000000000003</v>
       </c>
       <c r="X20">
-        <v>-608.32899999999995</v>
+        <v>-215.077</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>332.39600000000002</v>
+        <v>173.20099999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>186.09800000000001</v>
+        <v>122.68</v>
       </c>
       <c r="D21">
-        <v>1787.5820000000001</v>
+        <v>1364.597</v>
       </c>
       <c r="E21">
-        <v>1193.8440000000001</v>
+        <v>1024.758</v>
       </c>
       <c r="F21">
-        <v>676.55100000000004</v>
+        <v>482.05900000000003</v>
       </c>
       <c r="G21">
-        <v>2814.8290000000002</v>
+        <v>2219.2339999999999</v>
       </c>
       <c r="H21">
-        <v>8478.82</v>
+        <v>6804.7950000000001</v>
       </c>
       <c r="I21">
-        <v>622.80700000000002</v>
+        <v>376.43700000000001</v>
       </c>
       <c r="J21">
-        <v>2224.9430000000002</v>
+        <v>1339.883</v>
       </c>
       <c r="K21">
-        <v>161.19999999999999</v>
+        <v>292.80799999999999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1668.6990000000001</v>
+        <v>1566.703</v>
       </c>
       <c r="O21">
-        <v>4912.5159999999996</v>
+        <v>3536.6320000000001</v>
       </c>
       <c r="P21">
-        <v>2686.248</v>
+        <v>1883.7929999999999</v>
       </c>
       <c r="Q21">
-        <v>67.504999999999995</v>
+        <v>-43.975000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3566.3040000000001</v>
+        <v>3268.163</v>
       </c>
       <c r="U21">
-        <v>662.673</v>
+        <v>323.24200000000002</v>
       </c>
       <c r="V21">
-        <v>200.577</v>
+        <v>182.09700000000001</v>
       </c>
       <c r="W21">
-        <v>-65.084999999999994</v>
+        <v>-34.447000000000003</v>
       </c>
       <c r="X21">
-        <v>-86.034000000000006</v>
+        <v>716.255</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>186.09800000000001</v>
+        <v>122.68</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>141.82499999999999</v>
+        <v>116.127</v>
       </c>
       <c r="D22">
-        <v>1694.6</v>
+        <v>1410.567</v>
       </c>
       <c r="E22">
-        <v>1120.49</v>
+        <v>850.08399999999995</v>
       </c>
       <c r="F22">
-        <v>621.13199999999995</v>
+        <v>496.38600000000002</v>
       </c>
       <c r="G22">
-        <v>2419.0100000000002</v>
+        <v>1705.778</v>
       </c>
       <c r="H22">
-        <v>8606.0759999999991</v>
+        <v>6580.4920000000002</v>
       </c>
       <c r="I22">
-        <v>650.88</v>
+        <v>329.36200000000002</v>
       </c>
       <c r="J22">
-        <v>2603.6550000000002</v>
+        <v>1344.173</v>
       </c>
       <c r="K22">
-        <v>151</v>
+        <v>192.96100000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1367.182</v>
+        <v>1106.692</v>
       </c>
       <c r="O22">
-        <v>4961.5010000000002</v>
+        <v>3250.9690000000001</v>
       </c>
       <c r="P22">
-        <v>2754.777</v>
+        <v>1538.335</v>
       </c>
       <c r="Q22">
-        <v>-300.488</v>
+        <v>-122.95399999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>26000</v>
+        <v>31650</v>
       </c>
       <c r="T22">
-        <v>3644.5749999999998</v>
+        <v>3329.5230000000001</v>
       </c>
       <c r="U22">
-        <v>362.185</v>
+        <v>185.83199999999999</v>
       </c>
       <c r="V22">
-        <v>294.346</v>
+        <v>291.00099999999998</v>
       </c>
       <c r="W22">
-        <v>-65.224999999999994</v>
+        <v>-34.478999999999999</v>
       </c>
       <c r="X22">
-        <v>19.079999999999998</v>
+        <v>-374.96</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>141.82499999999999</v>
+        <v>116.127</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>99.355999999999995</v>
+        <v>203.828</v>
       </c>
       <c r="D23">
-        <v>1622.2729999999999</v>
+        <v>1510.213</v>
       </c>
       <c r="E23">
-        <v>1167.3130000000001</v>
+        <v>1066.922</v>
       </c>
       <c r="F23">
-        <v>595.11500000000001</v>
+        <v>547.90899999999999</v>
       </c>
       <c r="G23">
-        <v>2345.7559999999999</v>
+        <v>2189.0909999999999</v>
       </c>
       <c r="H23">
-        <v>8980.8950000000004</v>
+        <v>6754.0940000000001</v>
       </c>
       <c r="I23">
-        <v>706.19100000000003</v>
+        <v>433.26900000000001</v>
       </c>
       <c r="J23">
-        <v>2610.6419999999998</v>
+        <v>1343.7940000000001</v>
       </c>
       <c r="K23">
-        <v>401.3</v>
+        <v>77.444000000000003</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-116.015</v>
       </c>
       <c r="N23">
-        <v>1648.809</v>
+        <v>1169.577</v>
       </c>
       <c r="O23">
-        <v>5282.7619999999997</v>
+        <v>3204.288</v>
       </c>
       <c r="P23">
-        <v>3016.5</v>
+        <v>1422.2760000000001</v>
       </c>
       <c r="Q23">
-        <v>-118.465</v>
+        <v>94.213999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3698.1329999999998</v>
+        <v>3549.806</v>
       </c>
       <c r="U23">
-        <v>243.72</v>
+        <v>290.34699999999998</v>
       </c>
       <c r="V23">
-        <v>133.41300000000001</v>
+        <v>105.872</v>
       </c>
       <c r="W23">
-        <v>-65.94</v>
+        <v>-34.579000000000001</v>
       </c>
       <c r="X23">
-        <v>178.50700000000001</v>
+        <v>-117.70699999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>99.355999999999995</v>
+        <v>203.828</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>118.29</v>
+        <v>71.909000000000006</v>
       </c>
       <c r="D24">
-        <v>1686.345</v>
+        <v>1534.646</v>
       </c>
       <c r="E24">
-        <v>1180.146</v>
+        <v>1001.246</v>
       </c>
       <c r="F24">
-        <v>635.54200000000003</v>
+        <v>591.08100000000002</v>
       </c>
       <c r="G24">
-        <v>2379.7559999999999</v>
+        <v>2022.326</v>
       </c>
       <c r="H24">
-        <v>8979.0920000000006</v>
+        <v>6860.1930000000002</v>
       </c>
       <c r="I24">
-        <v>723.69299999999998</v>
+        <v>399.48899999999998</v>
       </c>
       <c r="J24">
-        <v>2607.0659999999998</v>
+        <v>1343.704</v>
       </c>
       <c r="K24">
-        <v>337</v>
+        <v>36.747999999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1640.367</v>
+        <v>1058.8710000000001</v>
       </c>
       <c r="O24">
-        <v>5265.357</v>
+        <v>3228.348</v>
       </c>
       <c r="P24">
-        <v>2951.223</v>
+        <v>1381.5419999999999</v>
       </c>
       <c r="Q24">
-        <v>11.42</v>
+        <v>-8.2579999999999991</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3713.7350000000001</v>
+        <v>3631.8449999999998</v>
       </c>
       <c r="U24">
-        <v>255.14</v>
+        <v>271.79399999999998</v>
       </c>
       <c r="V24">
-        <v>207.86799999999999</v>
+        <v>216.001</v>
       </c>
       <c r="W24">
-        <v>-65.313000000000002</v>
+        <v>-34.685000000000002</v>
       </c>
       <c r="X24">
-        <v>-127.678</v>
+        <v>-91.087999999999994</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>118.29</v>
+        <v>71.909000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>130.084</v>
+        <v>167.52500000000001</v>
       </c>
       <c r="D25">
-        <v>1707.7629999999999</v>
+        <v>1605.2470000000001</v>
       </c>
       <c r="E25">
-        <v>1199.1369999999999</v>
+        <v>1037.855</v>
       </c>
       <c r="F25">
-        <v>634.55899999999997</v>
+        <v>573.04399999999998</v>
       </c>
       <c r="G25">
-        <v>2738.9670000000001</v>
+        <v>2222.502</v>
       </c>
       <c r="H25">
-        <v>9298.2829999999994</v>
+        <v>7324.741</v>
       </c>
       <c r="I25">
-        <v>748.79899999999998</v>
+        <v>404.78500000000003</v>
       </c>
       <c r="J25">
-        <v>2613.761</v>
+        <v>1491.203</v>
       </c>
       <c r="K25">
-        <v>507.1</v>
+        <v>19.068999999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1891.0709999999999</v>
+        <v>1172.1969999999999</v>
       </c>
       <c r="O25">
-        <v>5509.3829999999998</v>
+        <v>3528.3679999999999</v>
       </c>
       <c r="P25">
-        <v>3127.741</v>
+        <v>1542.5630000000001</v>
       </c>
       <c r="Q25">
-        <v>259.61500000000001</v>
+        <v>69.762</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3788.9</v>
+        <v>3796.373</v>
       </c>
       <c r="U25">
-        <v>514.755</v>
+        <v>339.173</v>
       </c>
       <c r="V25">
-        <v>231.66499999999999</v>
+        <v>278.67099999999999</v>
       </c>
       <c r="W25">
-        <v>-68.506</v>
+        <v>-37.689</v>
       </c>
       <c r="X25">
-        <v>98.491</v>
+        <v>124.155</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>130.084</v>
+        <v>167.52500000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>161.16200000000001</v>
+        <v>118.52</v>
       </c>
       <c r="D26">
-        <v>1777.961</v>
+        <v>1679.173</v>
       </c>
       <c r="E26">
-        <v>1265.201</v>
+        <v>1040.2860000000001</v>
       </c>
       <c r="F26">
-        <v>621.49699999999996</v>
+        <v>596.54300000000001</v>
       </c>
       <c r="G26">
-        <v>2589.1909999999998</v>
+        <v>2238.7109999999998</v>
       </c>
       <c r="H26">
-        <v>10115.991</v>
+        <v>7626.6570000000002</v>
       </c>
       <c r="I26">
-        <v>830.31799999999998</v>
+        <v>401.137</v>
       </c>
       <c r="J26">
-        <v>3206.6370000000002</v>
+        <v>1480.491</v>
       </c>
       <c r="K26">
-        <v>407.6</v>
+        <v>258.28199999999998</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1940.318</v>
+        <v>1448.028</v>
       </c>
       <c r="O26">
-        <v>6316.2449999999999</v>
+        <v>3815.6350000000002</v>
       </c>
       <c r="P26">
-        <v>3621.1869999999999</v>
+        <v>1771.04</v>
       </c>
       <c r="Q26">
-        <v>-165.60900000000001</v>
+        <v>32.183999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="T26">
-        <v>3799.7460000000001</v>
+        <v>3811.0219999999999</v>
       </c>
       <c r="U26">
-        <v>349.14600000000002</v>
+        <v>374.84500000000003</v>
       </c>
       <c r="V26">
-        <v>289.029</v>
+        <v>294.29500000000002</v>
       </c>
       <c r="W26">
-        <v>-68.58</v>
+        <v>-37.845999999999997</v>
       </c>
       <c r="X26">
-        <v>484.28800000000001</v>
+        <v>212.93</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>161.16200000000001</v>
+        <v>118.52</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>172.24700000000001</v>
+        <v>128.93100000000001</v>
       </c>
       <c r="D27">
-        <v>1583.21</v>
+        <v>1744.433</v>
       </c>
       <c r="E27">
-        <v>1299.4269999999999</v>
+        <v>1106.1400000000001</v>
       </c>
       <c r="F27">
-        <v>579.93100000000004</v>
+        <v>621.43299999999999</v>
       </c>
       <c r="G27">
-        <v>2761.9189999999999</v>
+        <v>2451.2710000000002</v>
       </c>
       <c r="H27">
-        <v>10238.308000000001</v>
+        <v>7847.3360000000002</v>
       </c>
       <c r="I27">
-        <v>880.755</v>
+        <v>427.81599999999997</v>
       </c>
       <c r="J27">
-        <v>2887.962</v>
+        <v>1480.914</v>
       </c>
       <c r="K27">
-        <v>391.3</v>
+        <v>436.37700000000001</v>
       </c>
       <c r="L27">
-        <v>-15.9</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2319.203</v>
+        <v>1476.769</v>
       </c>
       <c r="O27">
-        <v>6284.893</v>
+        <v>3987.498</v>
       </c>
       <c r="P27">
-        <v>3636.3879999999999</v>
+        <v>1949.575</v>
       </c>
       <c r="Q27">
-        <v>66.384</v>
+        <v>71.796999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3953.415</v>
+        <v>3859.8380000000002</v>
       </c>
       <c r="U27">
-        <v>415.53</v>
+        <v>444.35399999999998</v>
       </c>
       <c r="V27">
-        <v>78.926000000000002</v>
+        <v>62.475000000000001</v>
       </c>
       <c r="W27">
-        <v>-68.516000000000005</v>
+        <v>-37.887</v>
       </c>
       <c r="X27">
-        <v>-93.293000000000006</v>
+        <v>137.26</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>172.24700000000001</v>
+        <v>128.93100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>172.19499999999999</v>
       </c>
       <c r="D28">
-        <v>1737.3710000000001</v>
+        <v>1824.143</v>
       </c>
       <c r="E28">
-        <v>1395.7449999999999</v>
+        <v>1119.5219999999999</v>
       </c>
       <c r="F28">
-        <v>654.26499999999999</v>
+        <v>653.61699999999996</v>
       </c>
       <c r="G28">
-        <v>2759.5839999999998</v>
+        <v>2432.5129999999999</v>
       </c>
       <c r="H28">
-        <v>10292.423000000001</v>
+        <v>7807.817</v>
       </c>
       <c r="I28">
-        <v>954.11500000000001</v>
+        <v>436.83699999999999</v>
       </c>
       <c r="J28">
-        <v>2925.4720000000002</v>
+        <v>1465.674</v>
       </c>
       <c r="K28">
-        <v>253.9</v>
+        <v>258.66699999999997</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2215.346</v>
+        <v>1362.528</v>
       </c>
       <c r="O28">
-        <v>6219.9889999999996</v>
+        <v>3810.2179999999998</v>
       </c>
       <c r="P28">
-        <v>3532.4369999999999</v>
+        <v>1756.463</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-37.491999999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4072.4340000000002</v>
+        <v>3997.5990000000002</v>
       </c>
       <c r="U28">
-        <v>301.58800000000002</v>
+        <v>409.863</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>251.61799999999999</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-37.866</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-254.72499999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>164.05799999999999</v>
+        <v>172.19499999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>178.91200000000001</v>
+        <v>174.59</v>
       </c>
       <c r="D29">
-        <v>1747.7750000000001</v>
+        <v>1865.106</v>
       </c>
       <c r="E29">
-        <v>1446.556</v>
+        <v>1172.0809999999999</v>
       </c>
       <c r="F29">
-        <v>651.03300000000002</v>
+        <v>668.35799999999995</v>
       </c>
       <c r="G29">
-        <v>2868.7710000000002</v>
+        <v>2495.2739999999999</v>
       </c>
       <c r="H29">
-        <v>10493.39</v>
+        <v>7949.0630000000001</v>
       </c>
       <c r="I29">
-        <v>976.25699999999995</v>
+        <v>432.26</v>
       </c>
       <c r="J29">
-        <v>2985.0479999999998</v>
+        <v>1454.4549999999999</v>
       </c>
       <c r="K29">
-        <v>132.5</v>
+        <v>479.16</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2167.2559999999999</v>
+        <v>1614.508</v>
       </c>
       <c r="O29">
-        <v>6217.7</v>
+        <v>4040.913</v>
       </c>
       <c r="P29">
-        <v>3469.136</v>
+        <v>1966.105</v>
       </c>
       <c r="Q29">
-        <v>20.451000000000001</v>
+        <v>38.947000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4275.6899999999996</v>
+        <v>3908.15</v>
       </c>
       <c r="U29">
-        <v>322.03899999999999</v>
+        <v>446.02300000000002</v>
       </c>
       <c r="V29">
-        <v>273.48399999999998</v>
+        <v>233.708</v>
       </c>
       <c r="W29">
-        <v>-73.367000000000004</v>
+        <v>-39.737000000000002</v>
       </c>
       <c r="X29">
-        <v>-197.63499999999999</v>
+        <v>-117.60599999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>178.91200000000001</v>
+        <v>174.59</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>296.44799999999998</v>
+        <v>185.364</v>
       </c>
       <c r="D30">
-        <v>1752.53</v>
+        <v>1883.588</v>
       </c>
       <c r="E30">
-        <v>1195.4459999999999</v>
+        <v>1104.0899999999999</v>
       </c>
       <c r="F30">
-        <v>660.476</v>
+        <v>676.09400000000005</v>
       </c>
       <c r="G30">
-        <v>2790.1469999999999</v>
+        <v>2544.6309999999999</v>
       </c>
       <c r="H30">
-        <v>10658.359</v>
+        <v>8068.4070000000002</v>
       </c>
       <c r="I30">
-        <v>882.00699999999995</v>
+        <v>416.21499999999997</v>
       </c>
       <c r="J30">
-        <v>2986.7020000000002</v>
+        <v>1452.0029999999999</v>
       </c>
       <c r="K30">
-        <v>230.7</v>
+        <v>605.47400000000005</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2141.9780000000001</v>
+        <v>1678.741</v>
       </c>
       <c r="O30">
-        <v>6275.1790000000001</v>
+        <v>4122.2340000000004</v>
       </c>
       <c r="P30">
-        <v>3567.8040000000001</v>
+        <v>2090.652</v>
       </c>
       <c r="Q30">
-        <v>431.92500000000001</v>
+        <v>160.13200000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>29000</v>
+        <v>33400</v>
       </c>
       <c r="T30">
-        <v>4383.18</v>
+        <v>3946.1729999999998</v>
       </c>
       <c r="U30">
-        <v>753.96400000000006</v>
+        <v>606.10500000000002</v>
       </c>
       <c r="V30">
-        <v>323.755</v>
+        <v>333.43400000000003</v>
       </c>
       <c r="W30">
-        <v>-73.41</v>
+        <v>-38.9</v>
       </c>
       <c r="X30">
-        <v>-86.94</v>
+        <v>-110.602</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>296.44799999999998</v>
+        <v>185.364</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>131.435</v>
+        <v>147.17599999999999</v>
       </c>
       <c r="D31">
-        <v>1637.671</v>
+        <v>1865.4860000000001</v>
       </c>
       <c r="E31">
-        <v>1418.701</v>
+        <v>1151.3009999999999</v>
       </c>
       <c r="F31">
-        <v>605.16800000000001</v>
+        <v>679.54499999999996</v>
       </c>
       <c r="G31">
-        <v>2951.9989999999998</v>
+        <v>2653.2649999999999</v>
       </c>
       <c r="H31">
-        <v>10543.04</v>
+        <v>8203.4449999999997</v>
       </c>
       <c r="I31">
-        <v>997.70399999999995</v>
+        <v>457.113</v>
       </c>
       <c r="J31">
-        <v>3032.0030000000002</v>
+        <v>1896.0150000000001</v>
       </c>
       <c r="K31">
-        <v>425.4</v>
+        <v>104.71299999999999</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-500.36799999999999</v>
       </c>
       <c r="M31">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2080.5880000000002</v>
+        <v>1323.694</v>
       </c>
       <c r="O31">
-        <v>6097.4179999999997</v>
+        <v>4216.8509999999997</v>
       </c>
       <c r="P31">
-        <v>3458.2539999999999</v>
+        <v>2184.4760000000001</v>
       </c>
       <c r="Q31">
-        <v>-386.74200000000002</v>
+        <v>33.244</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4445.6220000000003</v>
+        <v>3986.5940000000001</v>
       </c>
       <c r="U31">
-        <v>367.22199999999998</v>
+        <v>635.69000000000005</v>
       </c>
       <c r="V31">
-        <v>35.497999999999998</v>
+        <v>152.845</v>
       </c>
       <c r="W31">
-        <v>-72.691000000000003</v>
+        <v>-38.387999999999998</v>
       </c>
       <c r="X31">
-        <v>-289.10300000000001</v>
+        <v>-87.346999999999994</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>131.435</v>
+        <v>147.17599999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>139.958</v>
+        <v>135.27799999999999</v>
       </c>
       <c r="D32">
-        <v>1798.0940000000001</v>
+        <v>2010.9780000000001</v>
       </c>
       <c r="E32">
-        <v>1295.0630000000001</v>
+        <v>1237.2370000000001</v>
       </c>
       <c r="F32">
-        <v>667.428</v>
+        <v>739.61900000000003</v>
       </c>
       <c r="G32">
-        <v>2447.7280000000001</v>
+        <v>2836.0990000000002</v>
       </c>
       <c r="H32">
-        <v>8473.17</v>
+        <v>8386.7610000000004</v>
       </c>
       <c r="I32">
-        <v>938.42499999999995</v>
+        <v>486.084</v>
       </c>
       <c r="J32">
-        <v>2974.94</v>
+        <v>1879.492</v>
       </c>
       <c r="K32">
-        <v>283.3</v>
+        <v>430.2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1813.9269999999999</v>
+        <v>1546.421</v>
       </c>
       <c r="O32">
-        <v>5632.5789999999997</v>
+        <v>4430.1540000000005</v>
       </c>
       <c r="P32">
-        <v>3259.57</v>
+        <v>2342.3820000000001</v>
       </c>
       <c r="Q32">
-        <v>-124.408</v>
+        <v>103.264</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2840.5909999999999</v>
+        <v>3956.607</v>
       </c>
       <c r="U32">
-        <v>242.81399999999999</v>
+        <v>742.61300000000006</v>
       </c>
       <c r="V32">
-        <v>158.578</v>
+        <v>241.59800000000001</v>
       </c>
       <c r="W32">
-        <v>-69.631</v>
+        <v>-37.911999999999999</v>
       </c>
       <c r="X32">
-        <v>-227.73400000000001</v>
+        <v>-28.113</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>139.959</v>
+        <v>135.27600000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>157.30500000000001</v>
+        <v>187.65</v>
       </c>
       <c r="D33">
-        <v>1747.403</v>
+        <v>1965.7760000000001</v>
       </c>
       <c r="E33">
-        <v>1299.9770000000001</v>
+        <v>1194.472</v>
       </c>
       <c r="F33">
-        <v>650.10599999999999</v>
+        <v>704.34299999999996</v>
       </c>
       <c r="G33">
-        <v>2459.049</v>
+        <v>2826.8530000000001</v>
       </c>
       <c r="H33">
-        <v>8461.77</v>
+        <v>8316.482</v>
       </c>
       <c r="I33">
-        <v>948.64</v>
+        <v>469.767</v>
       </c>
       <c r="J33">
-        <v>2981.9229999999998</v>
+        <v>1861.175</v>
       </c>
       <c r="K33">
-        <v>298.60000000000002</v>
+        <v>375.5</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1890.3050000000001</v>
+        <v>1537.028</v>
       </c>
       <c r="O33">
-        <v>5713.8360000000002</v>
+        <v>4402.3819999999996</v>
       </c>
       <c r="P33">
-        <v>3280.5819999999999</v>
+        <v>2269.2489999999998</v>
       </c>
       <c r="Q33">
-        <v>-33.536999999999999</v>
+        <v>-166.68100000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2747.9340000000002</v>
+        <v>3914.1</v>
       </c>
       <c r="U33">
-        <v>209.27699999999999</v>
+        <v>575.93200000000002</v>
       </c>
       <c r="V33">
-        <v>240.398</v>
+        <v>351.92899999999997</v>
       </c>
       <c r="W33">
-        <v>-70.804000000000002</v>
+        <v>-46.271000000000001</v>
       </c>
       <c r="X33">
-        <v>-232.476</v>
+        <v>-216.595</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-219.35900000000001</v>
       </c>
       <c r="AA33">
-        <v>157.30500000000001</v>
+        <v>187.65</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>141.56899999999999</v>
+        <v>120.727</v>
       </c>
       <c r="D34">
-        <v>1808.95</v>
+        <v>1726.6479999999999</v>
       </c>
       <c r="E34">
-        <v>1241.1890000000001</v>
+        <v>1013.174</v>
       </c>
       <c r="F34">
-        <v>653.90700000000004</v>
+        <v>606.49900000000002</v>
       </c>
       <c r="G34">
-        <v>2503.7539999999999</v>
+        <v>2630.1190000000001</v>
       </c>
       <c r="H34">
-        <v>8365.7710000000006</v>
+        <v>7883.2380000000003</v>
       </c>
       <c r="I34">
-        <v>969.53099999999995</v>
+        <v>373.43599999999998</v>
       </c>
       <c r="J34">
-        <v>2943.66</v>
+        <v>1860.729</v>
       </c>
       <c r="K34">
-        <v>220.31800000000001</v>
+        <v>192.75</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1827.421</v>
+        <v>1253.5139999999999</v>
       </c>
       <c r="O34">
-        <v>5597.1049999999996</v>
+        <v>4090.3719999999998</v>
       </c>
       <c r="P34">
-        <v>3163.9780000000001</v>
+        <v>2085.6729999999998</v>
       </c>
       <c r="Q34">
-        <v>186.94399999999999</v>
+        <v>-28.523</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>24000</v>
+        <v>32300</v>
       </c>
       <c r="T34">
-        <v>2768.6660000000002</v>
+        <v>3792.866</v>
       </c>
       <c r="U34">
-        <v>396.221</v>
+        <v>547.40899999999999</v>
       </c>
       <c r="V34">
-        <v>364.161</v>
+        <v>256.452</v>
       </c>
       <c r="W34">
-        <v>-70.444000000000003</v>
+        <v>-46.5</v>
       </c>
       <c r="X34">
-        <v>-148.52500000000001</v>
+        <v>-228.84899999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-60.100999999999999</v>
       </c>
       <c r="AA34">
-        <v>141.56899999999999</v>
+        <v>120.727</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>105.705</v>
+        <v>53.424999999999997</v>
       </c>
       <c r="D35">
-        <v>1724.7570000000001</v>
+        <v>1379.085</v>
       </c>
       <c r="E35">
-        <v>1272.0530000000001</v>
+        <v>872.99800000000005</v>
       </c>
       <c r="F35">
-        <v>624.721</v>
+        <v>494.54300000000001</v>
       </c>
       <c r="G35">
-        <v>2529.4659999999999</v>
+        <v>2415.9140000000002</v>
       </c>
       <c r="H35">
-        <v>8657.9110000000001</v>
+        <v>7596.8329999999996</v>
       </c>
       <c r="I35">
-        <v>952.16200000000003</v>
+        <v>345.96699999999998</v>
       </c>
       <c r="J35">
-        <v>2940.9670000000001</v>
+        <v>1861.4069999999999</v>
       </c>
       <c r="K35">
-        <v>344.9</v>
+        <v>113.413</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-77.510999999999996</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1946.922</v>
+        <v>1010.944</v>
       </c>
       <c r="O35">
-        <v>5820.4579999999996</v>
+        <v>3823.4209999999998</v>
       </c>
       <c r="P35">
-        <v>3459.1280000000002</v>
+        <v>2008.059</v>
       </c>
       <c r="Q35">
-        <v>-153.20699999999999</v>
+        <v>-47.098999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2837.453</v>
+        <v>3773.4119999999998</v>
       </c>
       <c r="U35">
-        <v>243.01400000000001</v>
+        <v>500.31</v>
       </c>
       <c r="V35">
-        <v>24.524000000000001</v>
+        <v>108.096</v>
       </c>
       <c r="W35">
-        <v>-69.808999999999997</v>
+        <v>-46.503</v>
       </c>
       <c r="X35">
-        <v>36.067</v>
+        <v>-122.777</v>
       </c>
       <c r="Y35">
-        <v>127.133</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>7.9749999999999996</v>
       </c>
       <c r="AA35">
-        <v>105.705</v>
+        <v>53.424999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>198.08500000000001</v>
+        <v>97.081000000000003</v>
       </c>
       <c r="D36">
-        <v>1810.7059999999999</v>
+        <v>1390.3309999999999</v>
       </c>
       <c r="E36">
-        <v>1288.7550000000001</v>
+        <v>872.19299999999998</v>
       </c>
       <c r="F36">
-        <v>673.77599999999995</v>
+        <v>493.31</v>
       </c>
       <c r="G36">
-        <v>2623.2510000000002</v>
+        <v>2480.3180000000002</v>
       </c>
       <c r="H36">
-        <v>8776.0499999999993</v>
+        <v>7670.4539999999997</v>
       </c>
       <c r="I36">
-        <v>960.43200000000002</v>
+        <v>348.971</v>
       </c>
       <c r="J36">
-        <v>2946.4929999999999</v>
+        <v>1844.741</v>
       </c>
       <c r="K36">
-        <v>357.7</v>
+        <v>100.407</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1955.115</v>
+        <v>1000.49</v>
       </c>
       <c r="O36">
-        <v>5820.7790000000005</v>
+        <v>3766.5459999999998</v>
       </c>
       <c r="P36">
-        <v>3473.2359999999999</v>
+        <v>1978.7850000000001</v>
       </c>
       <c r="Q36">
-        <v>78.311999999999998</v>
+        <v>193.25</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2955.2710000000002</v>
+        <v>3903.9079999999999</v>
       </c>
       <c r="U36">
-        <v>321.32600000000002</v>
+        <v>693.56</v>
       </c>
       <c r="V36">
-        <v>208.709</v>
+        <v>180.542</v>
       </c>
       <c r="W36">
-        <v>-69.921000000000006</v>
+        <v>-46.53</v>
       </c>
       <c r="X36">
-        <v>-60.595999999999997</v>
+        <v>-73.105000000000004</v>
       </c>
       <c r="Y36">
-        <v>124.904</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>122.626</v>
       </c>
       <c r="AA36">
-        <v>198.08500000000001</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>206.006</v>
+        <v>106.884</v>
       </c>
       <c r="D37">
-        <v>1825.345</v>
+        <v>1499.6110000000001</v>
       </c>
       <c r="E37">
-        <v>1269.1500000000001</v>
+        <v>935.94799999999998</v>
       </c>
       <c r="F37">
-        <v>675.56100000000004</v>
+        <v>558.26599999999996</v>
       </c>
       <c r="G37">
-        <v>2585.9920000000002</v>
+        <v>2589.5680000000002</v>
       </c>
       <c r="H37">
-        <v>8669.3009999999995</v>
+        <v>7772.3109999999997</v>
       </c>
       <c r="I37">
-        <v>952.70799999999997</v>
+        <v>363.66500000000002</v>
       </c>
       <c r="J37">
-        <v>2908.7289999999998</v>
+        <v>1826.989</v>
       </c>
       <c r="K37">
-        <v>182.7</v>
+        <v>0.193</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1825.3019999999999</v>
+        <v>943.45299999999997</v>
       </c>
       <c r="O37">
-        <v>5651.6580000000004</v>
+        <v>3731.8969999999999</v>
       </c>
       <c r="P37">
-        <v>3260.2829999999999</v>
+        <v>1860.864</v>
       </c>
       <c r="Q37">
-        <v>19.206</v>
+        <v>-96.055999999999997</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3017.643</v>
+        <v>4040.4140000000002</v>
       </c>
       <c r="U37">
-        <v>340.53199999999998</v>
+        <v>597.50400000000002</v>
       </c>
       <c r="V37">
-        <v>350.86500000000001</v>
+        <v>249.61199999999999</v>
       </c>
       <c r="W37">
-        <v>-71.341999999999999</v>
+        <v>-48.398000000000003</v>
       </c>
       <c r="X37">
-        <v>-277.90100000000001</v>
+        <v>-166.94399999999999</v>
       </c>
       <c r="Y37">
-        <v>125.53400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-174.93700000000001</v>
       </c>
       <c r="AA37">
-        <v>206.006</v>
+        <v>106.884</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>168.12200000000001</v>
+        <v>99.048000000000002</v>
       </c>
       <c r="D38">
-        <v>1775.5889999999999</v>
+        <v>1506.6610000000001</v>
       </c>
       <c r="E38">
-        <v>1232.0840000000001</v>
+        <v>878.75400000000002</v>
       </c>
       <c r="F38">
-        <v>655.79</v>
+        <v>587.37699999999995</v>
       </c>
       <c r="G38">
-        <v>2548.4299999999998</v>
+        <v>2522.7069999999999</v>
       </c>
       <c r="H38">
-        <v>8669.4770000000008</v>
+        <v>7882.4030000000002</v>
       </c>
       <c r="I38">
-        <v>920.59299999999996</v>
+        <v>357.00400000000002</v>
       </c>
       <c r="J38">
-        <v>2985.7159999999999</v>
+        <v>1825.26</v>
       </c>
       <c r="K38">
-        <v>84.7</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1748.0909999999999</v>
+        <v>1108.0540000000001</v>
       </c>
       <c r="O38">
-        <v>5636.817</v>
+        <v>3798.7950000000001</v>
       </c>
       <c r="P38">
-        <v>3243.4209999999998</v>
+        <v>1860.884</v>
       </c>
       <c r="Q38">
-        <v>56.720999999999997</v>
+        <v>116.861</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>24000</v>
+        <v>29300</v>
       </c>
       <c r="T38">
-        <v>3032.66</v>
+        <v>4083.6080000000002</v>
       </c>
       <c r="U38">
-        <v>397.25299999999999</v>
+        <v>714.36500000000001</v>
       </c>
       <c r="V38">
-        <v>361.20800000000003</v>
+        <v>257.84300000000002</v>
       </c>
       <c r="W38">
-        <v>-71.125</v>
+        <v>-48.442999999999998</v>
       </c>
       <c r="X38">
-        <v>-255.61199999999999</v>
+        <v>-27.126999999999999</v>
       </c>
       <c r="Y38">
-        <v>129.376</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>101.93</v>
       </c>
       <c r="AA38">
-        <v>168.12200000000001</v>
+        <v>99.048000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>176.279</v>
+        <v>108.127</v>
       </c>
       <c r="D39">
-        <v>1655.9390000000001</v>
+        <v>1583.27</v>
       </c>
       <c r="E39">
-        <v>1222.154</v>
+        <v>990.40499999999997</v>
       </c>
       <c r="F39">
-        <v>613.78499999999997</v>
+        <v>612.16800000000001</v>
       </c>
       <c r="G39">
-        <v>2706</v>
+        <v>2755.7020000000002</v>
       </c>
       <c r="H39">
-        <v>8944.2530000000006</v>
+        <v>8026.9009999999998</v>
       </c>
       <c r="I39">
-        <v>947.00599999999997</v>
+        <v>437.59699999999998</v>
       </c>
       <c r="J39">
-        <v>2963.018</v>
+        <v>1825.1959999999999</v>
       </c>
       <c r="K39">
-        <v>500</v>
+        <v>127.5</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2094.3609999999999</v>
+        <v>1186.454</v>
       </c>
       <c r="O39">
-        <v>5963.5720000000001</v>
+        <v>3970.31</v>
       </c>
       <c r="P39">
-        <v>3463.018</v>
+        <v>1988.133</v>
       </c>
       <c r="Q39">
-        <v>111.654</v>
+        <v>-24.07</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2980.681</v>
+        <v>4056.5909999999999</v>
       </c>
       <c r="U39">
-        <v>508.90699999999998</v>
+        <v>690.29499999999996</v>
       </c>
       <c r="V39">
-        <v>75.863</v>
+        <v>86.040999999999997</v>
       </c>
       <c r="W39">
-        <v>-70.899000000000001</v>
+        <v>-48.695999999999998</v>
       </c>
       <c r="X39">
-        <v>280.95400000000001</v>
+        <v>69.551000000000002</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-117.99</v>
       </c>
       <c r="AA39">
-        <v>176.279</v>
+        <v>108.127</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>124.76600000000001</v>
+        <v>169.87</v>
       </c>
       <c r="D40">
-        <v>1499.175</v>
+        <v>1638.3219999999999</v>
       </c>
       <c r="E40">
-        <v>1142.5830000000001</v>
+        <v>1076.1320000000001</v>
       </c>
       <c r="F40">
-        <v>559.15499999999997</v>
+        <v>655.20600000000002</v>
       </c>
       <c r="G40">
-        <v>2799.4450000000002</v>
+        <v>2846.0659999999998</v>
       </c>
       <c r="H40">
-        <v>9114.1329999999998</v>
+        <v>8083.3069999999998</v>
       </c>
       <c r="I40">
-        <v>912.58799999999997</v>
+        <v>493.47399999999999</v>
       </c>
       <c r="J40">
-        <v>3000.87</v>
+        <v>1790.6420000000001</v>
       </c>
       <c r="K40">
-        <v>505</v>
+        <v>30</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2113.761</v>
+        <v>1259.8489999999999</v>
       </c>
       <c r="O40">
-        <v>6024.6059999999998</v>
+        <v>3998.0340000000001</v>
       </c>
       <c r="P40">
-        <v>3505.87</v>
+        <v>1874.347</v>
       </c>
       <c r="Q40">
-        <v>140.125</v>
+        <v>48.521999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3089.527</v>
+        <v>4085.2730000000001</v>
       </c>
       <c r="U40">
-        <v>649.03200000000004</v>
+        <v>738.81700000000001</v>
       </c>
       <c r="V40">
-        <v>271.80900000000003</v>
+        <v>230.79</v>
       </c>
       <c r="W40">
-        <v>-70.671000000000006</v>
+        <v>-48.581000000000003</v>
       </c>
       <c r="X40">
-        <v>-67.457999999999998</v>
+        <v>-175.03200000000001</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>71.685000000000002</v>
       </c>
       <c r="AA40">
-        <v>124.76600000000001</v>
+        <v>169.87</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>200.3</v>
+        <v>223.75899999999999</v>
       </c>
       <c r="D41">
-        <v>1748.2560000000001</v>
+        <v>1802.1579999999999</v>
       </c>
       <c r="E41">
-        <v>1203.4290000000001</v>
+        <v>1181.5989999999999</v>
       </c>
       <c r="F41">
-        <v>661.43899999999996</v>
+        <v>692.74599999999998</v>
       </c>
       <c r="G41">
-        <v>2604.9839999999999</v>
+        <v>3102.8409999999999</v>
       </c>
       <c r="H41">
-        <v>8985.9709999999995</v>
+        <v>8353.5750000000007</v>
       </c>
       <c r="I41">
-        <v>899.81399999999996</v>
+        <v>490.572</v>
       </c>
       <c r="J41">
-        <v>3047.2159999999999</v>
+        <v>1789.66</v>
       </c>
       <c r="K41">
-        <v>90.5</v>
+        <v>48.634999999999998</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1766.3710000000001</v>
+        <v>1198.9849999999999</v>
       </c>
       <c r="O41">
-        <v>5739.55</v>
+        <v>3978.3110000000001</v>
       </c>
       <c r="P41">
-        <v>3137.7159999999999</v>
+        <v>1839.84</v>
       </c>
       <c r="Q41">
-        <v>-221.53100000000001</v>
+        <v>127.078</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3246.4209999999998</v>
+        <v>4375.2640000000001</v>
       </c>
       <c r="U41">
-        <v>427.50099999999998</v>
+        <v>866.09</v>
       </c>
       <c r="V41">
-        <v>339.24700000000001</v>
+        <v>200.88499999999999</v>
       </c>
       <c r="W41">
-        <v>-71.457999999999998</v>
+        <v>-51.359000000000002</v>
       </c>
       <c r="X41">
-        <v>-496.83199999999999</v>
+        <v>-88.945999999999998</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>39.792999999999999</v>
       </c>
       <c r="AA41">
-        <v>200.3</v>
+        <v>223.75899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>198.34800000000001</v>
+      </c>
+      <c r="D42">
+        <v>1616.441</v>
+      </c>
+      <c r="E42">
+        <v>1023.099</v>
+      </c>
+      <c r="F42">
+        <v>658.56299999999999</v>
+      </c>
+      <c r="G42">
+        <v>3131.625</v>
+      </c>
+      <c r="H42">
+        <v>8558.7430000000004</v>
+      </c>
+      <c r="I42">
+        <v>438.28800000000001</v>
+      </c>
+      <c r="J42">
+        <v>1790.886</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1374.575</v>
+      </c>
+      <c r="O42">
+        <v>4032.181</v>
+      </c>
+      <c r="P42">
+        <v>1807.4760000000001</v>
+      </c>
+      <c r="Q42">
+        <v>321.113</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>32000</v>
+      </c>
+      <c r="T42">
+        <v>4526.5619999999999</v>
+      </c>
+      <c r="U42">
+        <v>1189.079</v>
+      </c>
+      <c r="V42">
+        <v>428.46100000000001</v>
+      </c>
+      <c r="W42">
+        <v>-51.463000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-110.361</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>93.096999999999994</v>
+      </c>
+      <c r="AA42">
+        <v>198.34800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>194.905</v>
+      </c>
+      <c r="D43">
+        <v>1812.078</v>
+      </c>
+      <c r="E43">
+        <v>1213.348</v>
+      </c>
+      <c r="F43">
+        <v>711.83699999999999</v>
+      </c>
+      <c r="G43">
+        <v>3591.317</v>
+      </c>
+      <c r="H43">
+        <v>9360.143</v>
+      </c>
+      <c r="I43">
+        <v>591.98900000000003</v>
+      </c>
+      <c r="J43">
+        <v>2185.991</v>
+      </c>
+      <c r="K43">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-400.44200000000001</v>
+      </c>
+      <c r="N43">
+        <v>1357.194</v>
+      </c>
+      <c r="O43">
+        <v>4616.0990000000002</v>
+      </c>
+      <c r="P43">
+        <v>2225.5940000000001</v>
+      </c>
+      <c r="Q43">
+        <v>189.68700000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4744.0439999999999</v>
+      </c>
+      <c r="U43">
+        <v>1378.1189999999999</v>
+      </c>
+      <c r="V43">
+        <v>126.056</v>
+      </c>
+      <c r="W43">
+        <v>-51.341000000000001</v>
+      </c>
+      <c r="X43">
+        <v>350.87700000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>124.41</v>
+      </c>
+      <c r="AA43">
+        <v>194.905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>249.76900000000001</v>
+      </c>
+      <c r="D44">
+        <v>1994.97</v>
+      </c>
+      <c r="E44">
+        <v>1323.47</v>
+      </c>
+      <c r="F44">
+        <v>777.15200000000004</v>
+      </c>
+      <c r="G44">
+        <v>3753.415</v>
+      </c>
+      <c r="H44">
+        <v>9482.0380000000005</v>
+      </c>
+      <c r="I44">
+        <v>596.31500000000005</v>
+      </c>
+      <c r="J44">
+        <v>2186.2379999999998</v>
+      </c>
+      <c r="K44">
+        <v>46</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1341.951</v>
+      </c>
+      <c r="O44">
+        <v>4569.0810000000001</v>
+      </c>
+      <c r="P44">
+        <v>2233.9859999999999</v>
+      </c>
+      <c r="Q44">
+        <v>21.504000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4912.9570000000003</v>
+      </c>
+      <c r="U44">
+        <v>1397.4190000000001</v>
+      </c>
+      <c r="V44">
+        <v>211.19900000000001</v>
+      </c>
+      <c r="W44">
+        <v>-51.264000000000003</v>
+      </c>
+      <c r="X44">
+        <v>-98.087999999999994</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>249.76900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>172.28</v>
+      </c>
+      <c r="D45">
+        <v>2138.6060000000002</v>
+      </c>
+      <c r="E45">
+        <v>1339.826</v>
+      </c>
+      <c r="F45">
+        <v>807.56</v>
+      </c>
+      <c r="G45">
+        <v>3292.748</v>
+      </c>
+      <c r="H45">
+        <v>9513.0360000000001</v>
+      </c>
+      <c r="I45">
+        <v>591.93899999999996</v>
+      </c>
+      <c r="J45">
+        <v>2186.4720000000002</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1386.896</v>
+      </c>
+      <c r="O45">
+        <v>4633.83</v>
+      </c>
+      <c r="P45">
+        <v>2187.0309999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-483.15600000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4879.2060000000001</v>
+      </c>
+      <c r="U45">
+        <v>917.024</v>
+      </c>
+      <c r="V45">
+        <v>390.05200000000002</v>
+      </c>
+      <c r="W45">
+        <v>-58.441000000000003</v>
+      </c>
+      <c r="X45">
+        <v>-134.018</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>172.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>278.28899999999999</v>
+      </c>
+      <c r="D46">
+        <v>1423.5</v>
+      </c>
+      <c r="E46">
+        <v>1118.848</v>
+      </c>
+      <c r="F46">
+        <v>550.49699999999996</v>
+      </c>
+      <c r="G46">
+        <v>3735.038</v>
+      </c>
+      <c r="H46">
+        <v>9500.5519999999997</v>
+      </c>
+      <c r="I46">
+        <v>515.84699999999998</v>
+      </c>
+      <c r="J46">
+        <v>2186.23</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1415.9079999999999</v>
+      </c>
+      <c r="O46">
+        <v>4569.9970000000003</v>
+      </c>
+      <c r="P46">
+        <v>2187.252</v>
+      </c>
+      <c r="Q46">
+        <v>291.35899999999998</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>34000</v>
+      </c>
+      <c r="T46">
+        <v>4930.5550000000003</v>
+      </c>
+      <c r="U46">
+        <v>1206.7550000000001</v>
+      </c>
+      <c r="V46">
+        <v>352.19499999999999</v>
+      </c>
+      <c r="W46">
+        <v>-58.107999999999997</v>
+      </c>
+      <c r="X46">
+        <v>-169.27199999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>278.28899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>196.06299999999999</v>
+      </c>
+      <c r="D47">
+        <v>1954.614</v>
+      </c>
+      <c r="E47">
+        <v>1273.69</v>
+      </c>
+      <c r="F47">
+        <v>746.32799999999997</v>
+      </c>
+      <c r="G47">
+        <v>3238.7689999999998</v>
+      </c>
+      <c r="H47">
+        <v>9698.5789999999997</v>
+      </c>
+      <c r="I47">
+        <v>603.54399999999998</v>
+      </c>
+      <c r="J47">
+        <v>2191.7570000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="N47">
+        <v>1302.5409999999999</v>
+      </c>
+      <c r="O47">
+        <v>4608.902</v>
+      </c>
+      <c r="P47">
+        <v>2195.2669999999998</v>
+      </c>
+      <c r="Q47">
+        <v>-306.779</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5089.6769999999997</v>
+      </c>
+      <c r="U47">
+        <v>899.976</v>
+      </c>
+      <c r="V47">
+        <v>136.30500000000001</v>
+      </c>
+      <c r="W47">
+        <v>-57.942999999999998</v>
+      </c>
+      <c r="X47">
+        <v>-87.245999999999995</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>196.06299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>214.101</v>
+      </c>
+      <c r="D48">
+        <v>2038.289</v>
+      </c>
+      <c r="E48">
+        <v>1320.2449999999999</v>
+      </c>
+      <c r="F48">
+        <v>777.84</v>
+      </c>
+      <c r="G48">
+        <v>3205.3139999999999</v>
+      </c>
+      <c r="H48">
+        <v>9804.4050000000007</v>
+      </c>
+      <c r="I48">
+        <v>620.59799999999996</v>
+      </c>
+      <c r="J48">
+        <v>2191.75</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1358.2629999999999</v>
+      </c>
+      <c r="O48">
+        <v>4694.1409999999996</v>
+      </c>
+      <c r="P48">
+        <v>2195.152</v>
+      </c>
+      <c r="Q48">
+        <v>-114.011</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5110.2640000000001</v>
+      </c>
+      <c r="U48">
+        <v>785.96500000000003</v>
+      </c>
+      <c r="V48">
+        <v>254.20699999999999</v>
+      </c>
+      <c r="W48">
+        <v>-57.771000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-208.16900000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>214.101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>241.04599999999999</v>
+      </c>
+      <c r="D49">
+        <v>2097.605</v>
+      </c>
+      <c r="E49">
+        <v>1412.3109999999999</v>
+      </c>
+      <c r="F49">
+        <v>811.59299999999996</v>
+      </c>
+      <c r="G49">
+        <v>3277.107</v>
+      </c>
+      <c r="H49">
+        <v>9910.1450000000004</v>
+      </c>
+      <c r="I49">
+        <v>607.16399999999999</v>
+      </c>
+      <c r="J49">
+        <v>2192.1619999999998</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1372.895</v>
+      </c>
+      <c r="O49">
+        <v>4697.4790000000003</v>
+      </c>
+      <c r="P49">
+        <v>2195.2959999999998</v>
+      </c>
+      <c r="Q49">
+        <v>8.1340000000000003</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5212.6660000000002</v>
+      </c>
+      <c r="U49">
+        <v>794.09900000000005</v>
+      </c>
+      <c r="V49">
+        <v>297.786</v>
+      </c>
+      <c r="W49">
+        <v>-63.418999999999997</v>
+      </c>
+      <c r="X49">
+        <v>-239.83099999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>241.04599999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>159.86000000000001</v>
+      </c>
+      <c r="D50">
+        <v>2013.8309999999999</v>
+      </c>
+      <c r="E50">
+        <v>1225.8979999999999</v>
+      </c>
+      <c r="F50">
+        <v>775.23900000000003</v>
+      </c>
+      <c r="G50">
+        <v>3425.3890000000001</v>
+      </c>
+      <c r="H50">
+        <v>10443.942999999999</v>
+      </c>
+      <c r="I50">
+        <v>651.35799999999995</v>
+      </c>
+      <c r="J50">
+        <v>2189.35</v>
+      </c>
+      <c r="K50">
+        <v>607.5</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2195.5859999999998</v>
+      </c>
+      <c r="O50">
+        <v>5524.7129999999997</v>
+      </c>
+      <c r="P50">
+        <v>2800.116</v>
+      </c>
+      <c r="Q50">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>35000</v>
+      </c>
+      <c r="T50">
+        <v>4919.2299999999996</v>
+      </c>
+      <c r="U50">
+        <v>800.07600000000002</v>
+      </c>
+      <c r="V50">
+        <v>584.875</v>
+      </c>
+      <c r="W50">
+        <v>-61.826000000000001</v>
+      </c>
+      <c r="X50">
+        <v>192.304</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>159.86000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>210.00299999999999</v>
+      </c>
+      <c r="D51">
+        <v>1763.9770000000001</v>
+      </c>
+      <c r="E51">
+        <v>1309.4459999999999</v>
+      </c>
+      <c r="F51">
+        <v>683.428</v>
+      </c>
+      <c r="G51">
+        <v>2919.8629999999998</v>
+      </c>
+      <c r="H51">
+        <v>10234.914000000001</v>
+      </c>
+      <c r="I51">
+        <v>648.40899999999999</v>
+      </c>
+      <c r="J51">
+        <v>2189.5210000000002</v>
+      </c>
+      <c r="K51">
+        <v>698.4</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="N51">
+        <v>2156.2710000000002</v>
+      </c>
+      <c r="O51">
+        <v>5473.1329999999998</v>
+      </c>
+      <c r="P51">
+        <v>2892.1190000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-228.71700000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4761.7809999999999</v>
+      </c>
+      <c r="U51">
+        <v>571.35900000000004</v>
+      </c>
+      <c r="V51">
+        <v>76.075000000000003</v>
+      </c>
+      <c r="W51">
+        <v>-60.296999999999997</v>
+      </c>
+      <c r="X51">
+        <v>-252.672</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>210.00299999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>330.04899999999998</v>
+      </c>
+      <c r="D52">
+        <v>1932.4110000000001</v>
+      </c>
+      <c r="E52">
+        <v>1398.829</v>
+      </c>
+      <c r="F52">
+        <v>759.00599999999997</v>
+      </c>
+      <c r="G52">
+        <v>3048.8850000000002</v>
+      </c>
+      <c r="H52">
+        <v>10349.255999999999</v>
+      </c>
+      <c r="I52">
+        <v>664.05799999999999</v>
+      </c>
+      <c r="J52">
+        <v>2189.8110000000001</v>
+      </c>
+      <c r="K52">
+        <v>662.2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2107.2840000000001</v>
+      </c>
+      <c r="O52">
+        <v>5368.384</v>
+      </c>
+      <c r="P52">
+        <v>2855.5920000000001</v>
+      </c>
+      <c r="Q52">
+        <v>34.591000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4980.8720000000003</v>
+      </c>
+      <c r="U52">
+        <v>605.95000000000005</v>
+      </c>
+      <c r="V52">
+        <v>309.43900000000002</v>
+      </c>
+      <c r="W52">
+        <v>-59.941000000000003</v>
+      </c>
+      <c r="X52">
+        <v>-158.684</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>330.04899999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>269.11399999999998</v>
+      </c>
+      <c r="D53">
+        <v>1940.211</v>
+      </c>
+      <c r="E53">
+        <v>1437.5129999999999</v>
+      </c>
+      <c r="F53">
+        <v>755.15</v>
+      </c>
+      <c r="G53">
+        <v>3638.67</v>
+      </c>
+      <c r="H53">
+        <v>10665.13</v>
+      </c>
+      <c r="I53">
+        <v>677.99400000000003</v>
+      </c>
+      <c r="J53">
+        <v>2190.1559999999999</v>
+      </c>
+      <c r="K53">
+        <v>668.9</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2151.9670000000001</v>
+      </c>
+      <c r="O53">
+        <v>5380.7049999999999</v>
+      </c>
+      <c r="P53">
+        <v>2862.2910000000002</v>
+      </c>
+      <c r="Q53">
+        <v>133.874</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>5284.4250000000002</v>
+      </c>
+      <c r="U53">
+        <v>739.82399999999996</v>
+      </c>
+      <c r="V53">
+        <v>345.29599999999999</v>
+      </c>
+      <c r="W53">
+        <v>-63.872999999999998</v>
+      </c>
+      <c r="X53">
+        <v>-112.479</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>269.11399999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>193.96299999999999</v>
+      </c>
+      <c r="D54">
+        <v>1518.4970000000001</v>
+      </c>
+      <c r="E54">
+        <v>1076.6410000000001</v>
+      </c>
+      <c r="F54">
+        <v>586.327</v>
+      </c>
+      <c r="G54">
+        <v>5497.0349999999999</v>
+      </c>
+      <c r="H54">
+        <v>10855.181</v>
+      </c>
+      <c r="I54">
+        <v>522.71299999999997</v>
+      </c>
+      <c r="J54">
+        <v>2599.201</v>
+      </c>
+      <c r="K54">
+        <v>226.5</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1877.8689999999999</v>
+      </c>
+      <c r="O54">
+        <v>5477.7849999999999</v>
+      </c>
+      <c r="P54">
+        <v>2828.4789999999998</v>
+      </c>
+      <c r="Q54">
+        <v>64.058000000000007</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>37000</v>
+      </c>
+      <c r="T54">
+        <v>5377.3959999999997</v>
+      </c>
+      <c r="U54">
+        <v>803.88199999999995</v>
+      </c>
+      <c r="V54">
+        <v>421.75700000000001</v>
+      </c>
+      <c r="W54">
+        <v>-63.709000000000003</v>
+      </c>
+      <c r="X54">
+        <v>-154.70699999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>193.96299999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>160.13800000000001</v>
+      </c>
+      <c r="D55">
+        <v>1802.57</v>
+      </c>
+      <c r="E55">
+        <v>1238.3679999999999</v>
+      </c>
+      <c r="F55">
+        <v>708.40300000000002</v>
+      </c>
+      <c r="G55">
+        <v>2701.7089999999998</v>
+      </c>
+      <c r="H55">
+        <v>8664.39</v>
+      </c>
+      <c r="I55">
+        <v>607.61599999999999</v>
+      </c>
+      <c r="J55">
+        <v>2602.3339999999998</v>
+      </c>
+      <c r="K55">
+        <v>74.3</v>
+      </c>
+      <c r="L55">
+        <v>-152.19999999999999</v>
+      </c>
+      <c r="M55">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="N55">
+        <v>1345.4369999999999</v>
+      </c>
+      <c r="O55">
+        <v>4916.3119999999999</v>
+      </c>
+      <c r="P55">
+        <v>2679.4290000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-317.84300000000002</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3748.078</v>
+      </c>
+      <c r="U55">
+        <v>486.03899999999999</v>
+      </c>
+      <c r="V55">
+        <v>-3.0019999999999998</v>
+      </c>
+      <c r="W55">
+        <v>-63.984999999999999</v>
+      </c>
+      <c r="X55">
+        <v>-151.774</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>160.13800000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>213.959</v>
+      </c>
+      <c r="D56">
+        <v>1962.636</v>
+      </c>
+      <c r="E56">
+        <v>1303.431</v>
+      </c>
+      <c r="F56">
+        <v>769.28800000000001</v>
+      </c>
+      <c r="G56">
+        <v>3111.413</v>
+      </c>
+      <c r="H56">
+        <v>8795.0740000000005</v>
+      </c>
+      <c r="I56">
+        <v>625.51300000000003</v>
+      </c>
+      <c r="J56">
+        <v>2596.3440000000001</v>
+      </c>
+      <c r="K56">
+        <v>48</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1337.43</v>
+      </c>
+      <c r="O56">
+        <v>4898.4480000000003</v>
+      </c>
+      <c r="P56">
+        <v>2647.0929999999998</v>
+      </c>
+      <c r="Q56">
+        <v>61.348999999999997</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3896.6260000000002</v>
+      </c>
+      <c r="U56">
+        <v>547.38800000000003</v>
+      </c>
+      <c r="V56">
+        <v>263.60399999999998</v>
+      </c>
+      <c r="W56">
+        <v>-62.445</v>
+      </c>
+      <c r="X56">
+        <v>-114.20099999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>213.959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>231.84399999999999</v>
+      </c>
+      <c r="D57">
+        <v>2009.575</v>
+      </c>
+      <c r="E57">
+        <v>1338.586</v>
+      </c>
+      <c r="F57">
+        <v>774.51499999999999</v>
+      </c>
+      <c r="G57">
+        <v>3127.2179999999998</v>
+      </c>
+      <c r="H57">
+        <v>8959.1859999999997</v>
+      </c>
+      <c r="I57">
+        <v>649.80499999999995</v>
+      </c>
+      <c r="J57">
+        <v>2570.2570000000001</v>
+      </c>
+      <c r="K57">
+        <v>150.5</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1474.6949999999999</v>
+      </c>
+      <c r="O57">
+        <v>5037.2470000000003</v>
+      </c>
+      <c r="P57">
+        <v>2723.3229999999999</v>
+      </c>
+      <c r="Q57">
+        <v>158.846</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3921.9389999999999</v>
+      </c>
+      <c r="U57">
+        <v>706.23400000000004</v>
+      </c>
+      <c r="V57">
+        <v>290.55</v>
+      </c>
+      <c r="W57">
+        <v>-66.203000000000003</v>
+      </c>
+      <c r="X57">
+        <v>-38.533999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>231.84399999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>169.29400000000001</v>
+      </c>
+      <c r="D58">
+        <v>1977.9469999999999</v>
+      </c>
+      <c r="E58">
+        <v>1186.7460000000001</v>
+      </c>
+      <c r="F58">
+        <v>741.73299999999995</v>
+      </c>
+      <c r="G58">
+        <v>3161.14</v>
+      </c>
+      <c r="H58">
+        <v>9030.2909999999993</v>
+      </c>
+      <c r="I58">
+        <v>615.33199999999999</v>
+      </c>
+      <c r="J58">
+        <v>2253.0410000000002</v>
+      </c>
+      <c r="K58">
+        <v>478</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2089.567</v>
+      </c>
+      <c r="O58">
+        <v>5329.5659999999998</v>
+      </c>
+      <c r="P58">
+        <v>3030.9969999999998</v>
+      </c>
+      <c r="Q58">
+        <v>-24.652999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>27000</v>
+      </c>
+      <c r="T58">
+        <v>3700.7249999999999</v>
+      </c>
+      <c r="U58">
+        <v>681.58100000000002</v>
+      </c>
+      <c r="V58">
+        <v>424.77199999999999</v>
+      </c>
+      <c r="W58">
+        <v>-65.853999999999999</v>
+      </c>
+      <c r="X58">
+        <v>49.02</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>169.29400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>209.51</v>
+      </c>
+      <c r="D59">
+        <v>1715.501</v>
+      </c>
+      <c r="E59">
+        <v>1133.213</v>
+      </c>
+      <c r="F59">
+        <v>634.61300000000006</v>
+      </c>
+      <c r="G59">
+        <v>2886.98</v>
+      </c>
+      <c r="H59">
+        <v>8646.7049999999999</v>
+      </c>
+      <c r="I59">
+        <v>584.1</v>
+      </c>
+      <c r="J59">
+        <v>2217.8739999999998</v>
+      </c>
+      <c r="K59">
+        <v>325.5</v>
+      </c>
+      <c r="L59">
+        <v>-152.5</v>
+      </c>
+      <c r="M59">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="N59">
+        <v>1818.7650000000001</v>
+      </c>
+      <c r="O59">
+        <v>5067.5950000000003</v>
+      </c>
+      <c r="P59">
+        <v>2843.3760000000002</v>
+      </c>
+      <c r="Q59">
+        <v>-143.095</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3579.11</v>
+      </c>
+      <c r="U59">
+        <v>538.48599999999999</v>
+      </c>
+      <c r="V59">
+        <v>134.04900000000001</v>
+      </c>
+      <c r="W59">
+        <v>-64.441999999999993</v>
+      </c>
+      <c r="X59">
+        <v>-416.60300000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>209.51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>332.39600000000002</v>
+      </c>
+      <c r="D60">
+        <v>1758.6279999999999</v>
+      </c>
+      <c r="E60">
+        <v>1149.414</v>
+      </c>
+      <c r="F60">
+        <v>657.04200000000003</v>
+      </c>
+      <c r="G60">
+        <v>2737.125</v>
+      </c>
+      <c r="H60">
+        <v>8466.8169999999991</v>
+      </c>
+      <c r="I60">
+        <v>606.346</v>
+      </c>
+      <c r="J60">
+        <v>2225.0630000000001</v>
+      </c>
+      <c r="K60">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1613.7049999999999</v>
+      </c>
+      <c r="O60">
+        <v>4874.335</v>
+      </c>
+      <c r="P60">
+        <v>2607.0140000000001</v>
+      </c>
+      <c r="Q60">
+        <v>56.682000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3592.482</v>
+      </c>
+      <c r="U60">
+        <v>595.16800000000001</v>
+      </c>
+      <c r="V60">
+        <v>206.14099999999999</v>
+      </c>
+      <c r="W60">
+        <v>-63.216999999999999</v>
+      </c>
+      <c r="X60">
+        <v>-608.32899999999995</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>332.39600000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>186.09800000000001</v>
+      </c>
+      <c r="D61">
+        <v>1787.5820000000001</v>
+      </c>
+      <c r="E61">
+        <v>1193.8440000000001</v>
+      </c>
+      <c r="F61">
+        <v>676.55100000000004</v>
+      </c>
+      <c r="G61">
+        <v>2814.8290000000002</v>
+      </c>
+      <c r="H61">
+        <v>8478.82</v>
+      </c>
+      <c r="I61">
+        <v>622.80700000000002</v>
+      </c>
+      <c r="J61">
+        <v>2224.9430000000002</v>
+      </c>
+      <c r="K61">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1668.6990000000001</v>
+      </c>
+      <c r="O61">
+        <v>4912.5159999999996</v>
+      </c>
+      <c r="P61">
+        <v>2686.248</v>
+      </c>
+      <c r="Q61">
+        <v>67.504999999999995</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3566.3040000000001</v>
+      </c>
+      <c r="U61">
+        <v>662.673</v>
+      </c>
+      <c r="V61">
+        <v>200.577</v>
+      </c>
+      <c r="W61">
+        <v>-65.084999999999994</v>
+      </c>
+      <c r="X61">
+        <v>-86.034000000000006</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>186.09800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>141.82499999999999</v>
+      </c>
+      <c r="D62">
+        <v>1694.6</v>
+      </c>
+      <c r="E62">
+        <v>1120.49</v>
+      </c>
+      <c r="F62">
+        <v>621.13199999999995</v>
+      </c>
+      <c r="G62">
+        <v>2419.0100000000002</v>
+      </c>
+      <c r="H62">
+        <v>8606.0759999999991</v>
+      </c>
+      <c r="I62">
+        <v>650.88</v>
+      </c>
+      <c r="J62">
+        <v>2603.6550000000002</v>
+      </c>
+      <c r="K62">
+        <v>151</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1367.182</v>
+      </c>
+      <c r="O62">
+        <v>4961.5010000000002</v>
+      </c>
+      <c r="P62">
+        <v>2754.777</v>
+      </c>
+      <c r="Q62">
+        <v>-300.488</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>26000</v>
+      </c>
+      <c r="T62">
+        <v>3644.5749999999998</v>
+      </c>
+      <c r="U62">
+        <v>362.185</v>
+      </c>
+      <c r="V62">
+        <v>294.346</v>
+      </c>
+      <c r="W62">
+        <v>-65.224999999999994</v>
+      </c>
+      <c r="X62">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>141.82499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>99.355999999999995</v>
+      </c>
+      <c r="D63">
+        <v>1622.2729999999999</v>
+      </c>
+      <c r="E63">
+        <v>1167.3130000000001</v>
+      </c>
+      <c r="F63">
+        <v>595.11500000000001</v>
+      </c>
+      <c r="G63">
+        <v>2345.7559999999999</v>
+      </c>
+      <c r="H63">
+        <v>8980.8950000000004</v>
+      </c>
+      <c r="I63">
+        <v>706.19100000000003</v>
+      </c>
+      <c r="J63">
+        <v>2610.6419999999998</v>
+      </c>
+      <c r="K63">
+        <v>401.3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1648.809</v>
+      </c>
+      <c r="O63">
+        <v>5282.7619999999997</v>
+      </c>
+      <c r="P63">
+        <v>3016.5</v>
+      </c>
+      <c r="Q63">
+        <v>-118.465</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3698.1329999999998</v>
+      </c>
+      <c r="U63">
+        <v>243.72</v>
+      </c>
+      <c r="V63">
+        <v>133.41300000000001</v>
+      </c>
+      <c r="W63">
+        <v>-65.94</v>
+      </c>
+      <c r="X63">
+        <v>178.50700000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>99.355999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>118.29</v>
+      </c>
+      <c r="D64">
+        <v>1686.345</v>
+      </c>
+      <c r="E64">
+        <v>1180.146</v>
+      </c>
+      <c r="F64">
+        <v>635.54200000000003</v>
+      </c>
+      <c r="G64">
+        <v>2379.7559999999999</v>
+      </c>
+      <c r="H64">
+        <v>8979.0920000000006</v>
+      </c>
+      <c r="I64">
+        <v>723.69299999999998</v>
+      </c>
+      <c r="J64">
+        <v>2607.0659999999998</v>
+      </c>
+      <c r="K64">
+        <v>337</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1640.367</v>
+      </c>
+      <c r="O64">
+        <v>5265.357</v>
+      </c>
+      <c r="P64">
+        <v>2951.223</v>
+      </c>
+      <c r="Q64">
+        <v>11.42</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3713.7350000000001</v>
+      </c>
+      <c r="U64">
+        <v>255.14</v>
+      </c>
+      <c r="V64">
+        <v>207.86799999999999</v>
+      </c>
+      <c r="W64">
+        <v>-65.313000000000002</v>
+      </c>
+      <c r="X64">
+        <v>-127.678</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>118.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>130.084</v>
+      </c>
+      <c r="D65">
+        <v>1707.7629999999999</v>
+      </c>
+      <c r="E65">
+        <v>1199.1369999999999</v>
+      </c>
+      <c r="F65">
+        <v>634.55899999999997</v>
+      </c>
+      <c r="G65">
+        <v>2738.9670000000001</v>
+      </c>
+      <c r="H65">
+        <v>9298.2829999999994</v>
+      </c>
+      <c r="I65">
+        <v>748.79899999999998</v>
+      </c>
+      <c r="J65">
+        <v>2613.761</v>
+      </c>
+      <c r="K65">
+        <v>507.1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1891.0709999999999</v>
+      </c>
+      <c r="O65">
+        <v>5509.3829999999998</v>
+      </c>
+      <c r="P65">
+        <v>3127.741</v>
+      </c>
+      <c r="Q65">
+        <v>259.61500000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3788.9</v>
+      </c>
+      <c r="U65">
+        <v>514.755</v>
+      </c>
+      <c r="V65">
+        <v>231.66499999999999</v>
+      </c>
+      <c r="W65">
+        <v>-68.506</v>
+      </c>
+      <c r="X65">
+        <v>98.491</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>130.084</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>161.16200000000001</v>
+      </c>
+      <c r="D66">
+        <v>1777.961</v>
+      </c>
+      <c r="E66">
+        <v>1265.201</v>
+      </c>
+      <c r="F66">
+        <v>621.49699999999996</v>
+      </c>
+      <c r="G66">
+        <v>2589.1909999999998</v>
+      </c>
+      <c r="H66">
+        <v>10115.991</v>
+      </c>
+      <c r="I66">
+        <v>830.31799999999998</v>
+      </c>
+      <c r="J66">
+        <v>3206.6370000000002</v>
+      </c>
+      <c r="K66">
+        <v>407.6</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1940.318</v>
+      </c>
+      <c r="O66">
+        <v>6316.2449999999999</v>
+      </c>
+      <c r="P66">
+        <v>3621.1869999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-165.60900000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>29000</v>
+      </c>
+      <c r="T66">
+        <v>3799.7460000000001</v>
+      </c>
+      <c r="U66">
+        <v>349.14600000000002</v>
+      </c>
+      <c r="V66">
+        <v>289.029</v>
+      </c>
+      <c r="W66">
+        <v>-68.58</v>
+      </c>
+      <c r="X66">
+        <v>484.28800000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>161.16200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>172.24700000000001</v>
+      </c>
+      <c r="D67">
+        <v>1583.21</v>
+      </c>
+      <c r="E67">
+        <v>1299.4269999999999</v>
+      </c>
+      <c r="F67">
+        <v>579.93100000000004</v>
+      </c>
+      <c r="G67">
+        <v>2761.9189999999999</v>
+      </c>
+      <c r="H67">
+        <v>10238.308000000001</v>
+      </c>
+      <c r="I67">
+        <v>880.755</v>
+      </c>
+      <c r="J67">
+        <v>2887.962</v>
+      </c>
+      <c r="K67">
+        <v>391.3</v>
+      </c>
+      <c r="L67">
+        <v>-15.9</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2319.203</v>
+      </c>
+      <c r="O67">
+        <v>6284.893</v>
+      </c>
+      <c r="P67">
+        <v>3636.3879999999999</v>
+      </c>
+      <c r="Q67">
+        <v>66.384</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3953.415</v>
+      </c>
+      <c r="U67">
+        <v>415.53</v>
+      </c>
+      <c r="V67">
+        <v>78.926000000000002</v>
+      </c>
+      <c r="W67">
+        <v>-68.516000000000005</v>
+      </c>
+      <c r="X67">
+        <v>-93.293000000000006</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>172.24700000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1737.3710000000001</v>
+      </c>
+      <c r="E68">
+        <v>1395.7449999999999</v>
+      </c>
+      <c r="F68">
+        <v>654.26499999999999</v>
+      </c>
+      <c r="G68">
+        <v>2759.5839999999998</v>
+      </c>
+      <c r="H68">
+        <v>10292.423000000001</v>
+      </c>
+      <c r="I68">
+        <v>954.11500000000001</v>
+      </c>
+      <c r="J68">
+        <v>2925.4720000000002</v>
+      </c>
+      <c r="K68">
+        <v>253.9</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2215.346</v>
+      </c>
+      <c r="O68">
+        <v>6219.9889999999996</v>
+      </c>
+      <c r="P68">
+        <v>3532.4369999999999</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4072.4340000000002</v>
+      </c>
+      <c r="U68">
+        <v>301.58800000000002</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>164.05799999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>178.91200000000001</v>
+      </c>
+      <c r="D69">
+        <v>1747.7750000000001</v>
+      </c>
+      <c r="E69">
+        <v>1446.556</v>
+      </c>
+      <c r="F69">
+        <v>651.03300000000002</v>
+      </c>
+      <c r="G69">
+        <v>2868.7710000000002</v>
+      </c>
+      <c r="H69">
+        <v>10493.39</v>
+      </c>
+      <c r="I69">
+        <v>976.25699999999995</v>
+      </c>
+      <c r="J69">
+        <v>2985.0479999999998</v>
+      </c>
+      <c r="K69">
+        <v>132.5</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2167.2559999999999</v>
+      </c>
+      <c r="O69">
+        <v>6217.7</v>
+      </c>
+      <c r="P69">
+        <v>3469.136</v>
+      </c>
+      <c r="Q69">
+        <v>20.451000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4275.6899999999996</v>
+      </c>
+      <c r="U69">
+        <v>322.03899999999999</v>
+      </c>
+      <c r="V69">
+        <v>273.48399999999998</v>
+      </c>
+      <c r="W69">
+        <v>-73.367000000000004</v>
+      </c>
+      <c r="X69">
+        <v>-197.63499999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>178.91200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>296.44799999999998</v>
+      </c>
+      <c r="D70">
+        <v>1752.53</v>
+      </c>
+      <c r="E70">
+        <v>1195.4459999999999</v>
+      </c>
+      <c r="F70">
+        <v>660.476</v>
+      </c>
+      <c r="G70">
+        <v>2790.1469999999999</v>
+      </c>
+      <c r="H70">
+        <v>10658.359</v>
+      </c>
+      <c r="I70">
+        <v>882.00699999999995</v>
+      </c>
+      <c r="J70">
+        <v>2986.7020000000002</v>
+      </c>
+      <c r="K70">
+        <v>230.7</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2141.9780000000001</v>
+      </c>
+      <c r="O70">
+        <v>6275.1790000000001</v>
+      </c>
+      <c r="P70">
+        <v>3567.8040000000001</v>
+      </c>
+      <c r="Q70">
+        <v>431.92500000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>29000</v>
+      </c>
+      <c r="T70">
+        <v>4383.18</v>
+      </c>
+      <c r="U70">
+        <v>753.96400000000006</v>
+      </c>
+      <c r="V70">
+        <v>323.755</v>
+      </c>
+      <c r="W70">
+        <v>-73.41</v>
+      </c>
+      <c r="X70">
+        <v>-86.94</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>296.44799999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>131.435</v>
+      </c>
+      <c r="D71">
+        <v>1637.671</v>
+      </c>
+      <c r="E71">
+        <v>1418.701</v>
+      </c>
+      <c r="F71">
+        <v>605.16800000000001</v>
+      </c>
+      <c r="G71">
+        <v>2951.9989999999998</v>
+      </c>
+      <c r="H71">
+        <v>10543.04</v>
+      </c>
+      <c r="I71">
+        <v>997.70399999999995</v>
+      </c>
+      <c r="J71">
+        <v>3032.0030000000002</v>
+      </c>
+      <c r="K71">
+        <v>425.4</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-350</v>
+      </c>
+      <c r="N71">
+        <v>2080.5880000000002</v>
+      </c>
+      <c r="O71">
+        <v>6097.4179999999997</v>
+      </c>
+      <c r="P71">
+        <v>3458.2539999999999</v>
+      </c>
+      <c r="Q71">
+        <v>-386.74200000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4445.6220000000003</v>
+      </c>
+      <c r="U71">
+        <v>367.22199999999998</v>
+      </c>
+      <c r="V71">
+        <v>35.497999999999998</v>
+      </c>
+      <c r="W71">
+        <v>-72.691000000000003</v>
+      </c>
+      <c r="X71">
+        <v>-289.10300000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>131.435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>139.958</v>
+      </c>
+      <c r="D72">
+        <v>1798.0940000000001</v>
+      </c>
+      <c r="E72">
+        <v>1295.0630000000001</v>
+      </c>
+      <c r="F72">
+        <v>667.428</v>
+      </c>
+      <c r="G72">
+        <v>2447.7280000000001</v>
+      </c>
+      <c r="H72">
+        <v>8473.17</v>
+      </c>
+      <c r="I72">
+        <v>938.42499999999995</v>
+      </c>
+      <c r="J72">
+        <v>2974.94</v>
+      </c>
+      <c r="K72">
+        <v>283.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1813.9269999999999</v>
+      </c>
+      <c r="O72">
+        <v>5632.5789999999997</v>
+      </c>
+      <c r="P72">
+        <v>3259.57</v>
+      </c>
+      <c r="Q72">
+        <v>-124.408</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2840.5909999999999</v>
+      </c>
+      <c r="U72">
+        <v>242.81399999999999</v>
+      </c>
+      <c r="V72">
+        <v>158.578</v>
+      </c>
+      <c r="W72">
+        <v>-69.631</v>
+      </c>
+      <c r="X72">
+        <v>-227.73400000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>139.959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>157.30500000000001</v>
+      </c>
+      <c r="D73">
+        <v>1747.403</v>
+      </c>
+      <c r="E73">
+        <v>1299.9770000000001</v>
+      </c>
+      <c r="F73">
+        <v>650.10599999999999</v>
+      </c>
+      <c r="G73">
+        <v>2459.049</v>
+      </c>
+      <c r="H73">
+        <v>8461.77</v>
+      </c>
+      <c r="I73">
+        <v>948.64</v>
+      </c>
+      <c r="J73">
+        <v>2981.9229999999998</v>
+      </c>
+      <c r="K73">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1890.3050000000001</v>
+      </c>
+      <c r="O73">
+        <v>5713.8360000000002</v>
+      </c>
+      <c r="P73">
+        <v>3280.5819999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-33.536999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2747.9340000000002</v>
+      </c>
+      <c r="U73">
+        <v>209.27699999999999</v>
+      </c>
+      <c r="V73">
+        <v>240.398</v>
+      </c>
+      <c r="W73">
+        <v>-70.804000000000002</v>
+      </c>
+      <c r="X73">
+        <v>-232.476</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>157.30500000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>141.56899999999999</v>
+      </c>
+      <c r="D74">
+        <v>1808.95</v>
+      </c>
+      <c r="E74">
+        <v>1241.1890000000001</v>
+      </c>
+      <c r="F74">
+        <v>653.90700000000004</v>
+      </c>
+      <c r="G74">
+        <v>2503.7539999999999</v>
+      </c>
+      <c r="H74">
+        <v>8365.7710000000006</v>
+      </c>
+      <c r="I74">
+        <v>969.53099999999995</v>
+      </c>
+      <c r="J74">
+        <v>2943.66</v>
+      </c>
+      <c r="K74">
+        <v>220.31800000000001</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1827.421</v>
+      </c>
+      <c r="O74">
+        <v>5597.1049999999996</v>
+      </c>
+      <c r="P74">
+        <v>3163.9780000000001</v>
+      </c>
+      <c r="Q74">
+        <v>186.94399999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>24000</v>
+      </c>
+      <c r="T74">
+        <v>2768.6660000000002</v>
+      </c>
+      <c r="U74">
+        <v>396.221</v>
+      </c>
+      <c r="V74">
+        <v>364.161</v>
+      </c>
+      <c r="W74">
+        <v>-70.444000000000003</v>
+      </c>
+      <c r="X74">
+        <v>-148.52500000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>141.56899999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>105.705</v>
+      </c>
+      <c r="D75">
+        <v>1724.7570000000001</v>
+      </c>
+      <c r="E75">
+        <v>1272.0530000000001</v>
+      </c>
+      <c r="F75">
+        <v>624.721</v>
+      </c>
+      <c r="G75">
+        <v>2529.4659999999999</v>
+      </c>
+      <c r="H75">
+        <v>8657.9110000000001</v>
+      </c>
+      <c r="I75">
+        <v>952.16200000000003</v>
+      </c>
+      <c r="J75">
+        <v>2940.9670000000001</v>
+      </c>
+      <c r="K75">
+        <v>344.9</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1946.922</v>
+      </c>
+      <c r="O75">
+        <v>5820.4579999999996</v>
+      </c>
+      <c r="P75">
+        <v>3459.1280000000002</v>
+      </c>
+      <c r="Q75">
+        <v>-153.20699999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2837.453</v>
+      </c>
+      <c r="U75">
+        <v>243.01400000000001</v>
+      </c>
+      <c r="V75">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="W75">
+        <v>-69.808999999999997</v>
+      </c>
+      <c r="X75">
+        <v>36.067</v>
+      </c>
+      <c r="Y75">
+        <v>127.133</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>105.705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="D76">
+        <v>1810.7059999999999</v>
+      </c>
+      <c r="E76">
+        <v>1288.7550000000001</v>
+      </c>
+      <c r="F76">
+        <v>673.77599999999995</v>
+      </c>
+      <c r="G76">
+        <v>2623.2510000000002</v>
+      </c>
+      <c r="H76">
+        <v>8776.0499999999993</v>
+      </c>
+      <c r="I76">
+        <v>960.43200000000002</v>
+      </c>
+      <c r="J76">
+        <v>2946.4929999999999</v>
+      </c>
+      <c r="K76">
+        <v>357.7</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1955.115</v>
+      </c>
+      <c r="O76">
+        <v>5820.7790000000005</v>
+      </c>
+      <c r="P76">
+        <v>3473.2359999999999</v>
+      </c>
+      <c r="Q76">
+        <v>78.311999999999998</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2955.2710000000002</v>
+      </c>
+      <c r="U76">
+        <v>321.32600000000002</v>
+      </c>
+      <c r="V76">
+        <v>208.709</v>
+      </c>
+      <c r="W76">
+        <v>-69.921000000000006</v>
+      </c>
+      <c r="X76">
+        <v>-60.595999999999997</v>
+      </c>
+      <c r="Y76">
+        <v>124.904</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>198.08500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>206.006</v>
+      </c>
+      <c r="D77">
+        <v>1825.345</v>
+      </c>
+      <c r="E77">
+        <v>1269.1500000000001</v>
+      </c>
+      <c r="F77">
+        <v>675.56100000000004</v>
+      </c>
+      <c r="G77">
+        <v>2585.9920000000002</v>
+      </c>
+      <c r="H77">
+        <v>8669.3009999999995</v>
+      </c>
+      <c r="I77">
+        <v>952.70799999999997</v>
+      </c>
+      <c r="J77">
+        <v>2908.7289999999998</v>
+      </c>
+      <c r="K77">
+        <v>182.7</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1825.3019999999999</v>
+      </c>
+      <c r="O77">
+        <v>5651.6580000000004</v>
+      </c>
+      <c r="P77">
+        <v>3260.2829999999999</v>
+      </c>
+      <c r="Q77">
+        <v>19.206</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3017.643</v>
+      </c>
+      <c r="U77">
+        <v>340.53199999999998</v>
+      </c>
+      <c r="V77">
+        <v>350.86500000000001</v>
+      </c>
+      <c r="W77">
+        <v>-71.341999999999999</v>
+      </c>
+      <c r="X77">
+        <v>-277.90100000000001</v>
+      </c>
+      <c r="Y77">
+        <v>125.53400000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>206.006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>168.12200000000001</v>
+      </c>
+      <c r="D78">
+        <v>1775.5889999999999</v>
+      </c>
+      <c r="E78">
+        <v>1232.0840000000001</v>
+      </c>
+      <c r="F78">
+        <v>655.79</v>
+      </c>
+      <c r="G78">
+        <v>2548.4299999999998</v>
+      </c>
+      <c r="H78">
+        <v>8669.4770000000008</v>
+      </c>
+      <c r="I78">
+        <v>920.59299999999996</v>
+      </c>
+      <c r="J78">
+        <v>2985.7159999999999</v>
+      </c>
+      <c r="K78">
+        <v>84.7</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1748.0909999999999</v>
+      </c>
+      <c r="O78">
+        <v>5636.817</v>
+      </c>
+      <c r="P78">
+        <v>3243.4209999999998</v>
+      </c>
+      <c r="Q78">
+        <v>56.720999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>24000</v>
+      </c>
+      <c r="T78">
+        <v>3032.66</v>
+      </c>
+      <c r="U78">
+        <v>397.25299999999999</v>
+      </c>
+      <c r="V78">
+        <v>361.20800000000003</v>
+      </c>
+      <c r="W78">
+        <v>-71.125</v>
+      </c>
+      <c r="X78">
+        <v>-255.61199999999999</v>
+      </c>
+      <c r="Y78">
+        <v>129.376</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>168.12200000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>176.279</v>
+      </c>
+      <c r="D79">
+        <v>1655.9390000000001</v>
+      </c>
+      <c r="E79">
+        <v>1222.154</v>
+      </c>
+      <c r="F79">
+        <v>613.78499999999997</v>
+      </c>
+      <c r="G79">
+        <v>2706</v>
+      </c>
+      <c r="H79">
+        <v>8944.2530000000006</v>
+      </c>
+      <c r="I79">
+        <v>947.00599999999997</v>
+      </c>
+      <c r="J79">
+        <v>2963.018</v>
+      </c>
+      <c r="K79">
+        <v>500</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2094.3609999999999</v>
+      </c>
+      <c r="O79">
+        <v>5963.5720000000001</v>
+      </c>
+      <c r="P79">
+        <v>3463.018</v>
+      </c>
+      <c r="Q79">
+        <v>111.654</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2980.681</v>
+      </c>
+      <c r="U79">
+        <v>508.90699999999998</v>
+      </c>
+      <c r="V79">
+        <v>75.863</v>
+      </c>
+      <c r="W79">
+        <v>-70.899000000000001</v>
+      </c>
+      <c r="X79">
+        <v>280.95400000000001</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>176.279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>124.76600000000001</v>
+      </c>
+      <c r="D80">
+        <v>1499.175</v>
+      </c>
+      <c r="E80">
+        <v>1142.5830000000001</v>
+      </c>
+      <c r="F80">
+        <v>559.15499999999997</v>
+      </c>
+      <c r="G80">
+        <v>2799.4450000000002</v>
+      </c>
+      <c r="H80">
+        <v>9114.1329999999998</v>
+      </c>
+      <c r="I80">
+        <v>912.58799999999997</v>
+      </c>
+      <c r="J80">
+        <v>3000.87</v>
+      </c>
+      <c r="K80">
+        <v>505</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2113.761</v>
+      </c>
+      <c r="O80">
+        <v>6024.6059999999998</v>
+      </c>
+      <c r="P80">
+        <v>3505.87</v>
+      </c>
+      <c r="Q80">
+        <v>140.125</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3089.527</v>
+      </c>
+      <c r="U80">
+        <v>649.03200000000004</v>
+      </c>
+      <c r="V80">
+        <v>271.80900000000003</v>
+      </c>
+      <c r="W80">
+        <v>-70.671000000000006</v>
+      </c>
+      <c r="X80">
+        <v>-67.457999999999998</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>124.76600000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>200.3</v>
+      </c>
+      <c r="D81">
+        <v>1748.2560000000001</v>
+      </c>
+      <c r="E81">
+        <v>1203.4290000000001</v>
+      </c>
+      <c r="F81">
+        <v>661.43899999999996</v>
+      </c>
+      <c r="G81">
+        <v>2604.9839999999999</v>
+      </c>
+      <c r="H81">
+        <v>8985.9709999999995</v>
+      </c>
+      <c r="I81">
+        <v>899.81399999999996</v>
+      </c>
+      <c r="J81">
+        <v>3047.2159999999999</v>
+      </c>
+      <c r="K81">
+        <v>90.5</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1766.3710000000001</v>
+      </c>
+      <c r="O81">
+        <v>5739.55</v>
+      </c>
+      <c r="P81">
+        <v>3137.7159999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-221.53100000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3246.4209999999998</v>
+      </c>
+      <c r="U81">
+        <v>427.50099999999998</v>
+      </c>
+      <c r="V81">
+        <v>339.24700000000001</v>
+      </c>
+      <c r="W81">
+        <v>-71.457999999999998</v>
+      </c>
+      <c r="X81">
+        <v>-496.83199999999999</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>200.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>182.10599999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1780.39</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1152.2429999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>658.53499999999997</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2619.1869999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9152.0740000000005</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>853.94200000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3108.8290000000002</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1738.798</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5766.3010000000004</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3303.002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>85.573999999999998</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>23000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3385.7730000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>513.07500000000005</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>417.89100000000002</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-71.284000000000006</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-222.95400000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>142.69800000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>182.10599999999999</v>
       </c>
     </row>
